--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_8_19.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_8_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-499044.918854829</v>
+        <v>-499757.2206778729</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>167214.7199159989</v>
+        <v>167214.719915999</v>
       </c>
     </row>
     <row r="8">
@@ -1221,20 +1221,20 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>3.199249640013477</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
@@ -1254,19 +1254,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>2.817899082923868</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>3.199249640013477</v>
       </c>
       <c r="U9" t="n">
-        <v>2.817899082923868</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>172.057233228111</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>83.99727446276377</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="G11" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>62.86150506240826</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.3687304053804</v>
+        <v>0.8352296170906097</v>
       </c>
       <c r="T11" t="n">
-        <v>44.31761724675147</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>142.7315194560842</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>159.7481996726991</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>181.6344501416384</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
         <v>9.369887371298148</v>
@@ -1455,13 +1455,13 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>62.26076865912854</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1512,10 +1512,10 @@
         <v>88.55631942394382</v>
       </c>
       <c r="X12" t="n">
-        <v>39.16465028640283</v>
+        <v>91.01980325132796</v>
       </c>
       <c r="Y12" t="n">
-        <v>188.4979333192472</v>
+        <v>45.23602198095784</v>
       </c>
     </row>
     <row r="13">
@@ -1607,25 +1607,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>172.057233228111</v>
+        <v>77.293421098712</v>
       </c>
       <c r="D14" t="n">
-        <v>159.6238954891595</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="H14" t="n">
-        <v>168.8731344554828</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>62.86150506240826</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,16 +1652,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.73328122929905</v>
+        <v>16.733281229299</v>
       </c>
       <c r="S14" t="n">
-        <v>49.3687304053804</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>72.00227733958198</v>
+        <v>72.00227733958192</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>30.00272241591162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,10 +1686,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.369887371298148</v>
+        <v>9.369887371298091</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1698,10 +1698,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H15" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.869455874161019</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>13.44252716693654</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="T15" t="n">
-        <v>36.82265945242251</v>
+        <v>83.50344478854198</v>
       </c>
       <c r="U15" t="n">
-        <v>59.07980534382084</v>
+        <v>59.07980534382078</v>
       </c>
       <c r="V15" t="n">
-        <v>154.9430689371995</v>
+        <v>62.50065676233442</v>
       </c>
       <c r="W15" t="n">
-        <v>88.55631942394382</v>
+        <v>88.55631942394376</v>
       </c>
       <c r="X15" t="n">
-        <v>39.16465028640283</v>
+        <v>39.16465028640278</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.23602198095784</v>
+        <v>45.23602198095779</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.28169700256634</v>
+        <v>25.28169700256628</v>
       </c>
       <c r="S16" t="n">
-        <v>57.28978021311279</v>
+        <v>57.28978021311273</v>
       </c>
       <c r="T16" t="n">
-        <v>45.61329429725524</v>
+        <v>45.61329429725518</v>
       </c>
       <c r="U16" t="n">
         <v>110.5082928154978</v>
       </c>
       <c r="V16" t="n">
-        <v>66.96075103138213</v>
+        <v>66.96075103138207</v>
       </c>
       <c r="W16" t="n">
-        <v>112.1624429362676</v>
+        <v>112.1624429362675</v>
       </c>
       <c r="X16" t="n">
-        <v>43.77119125517476</v>
+        <v>43.7711912551747</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.99300866110065</v>
+        <v>38.99300866110059</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>40.32448871524286</v>
       </c>
       <c r="E17" t="n">
-        <v>74.03124113465174</v>
+        <v>74.03124113465169</v>
       </c>
       <c r="F17" t="n">
         <v>105.7515787130291</v>
@@ -1859,7 +1859,7 @@
         <v>121.3905020356641</v>
       </c>
       <c r="H17" t="n">
-        <v>49.57372768156614</v>
+        <v>49.57372768156615</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1920,31 +1920,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>69.61907332448749</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>20.25594161551312</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>52.47517038390258</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1983,13 +1983,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
         <v>188.4979333192472</v>
       </c>
-      <c r="X18" t="n">
-        <v>0</v>
-      </c>
       <c r="Y18" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2084,7 +2084,7 @@
         <v>52.7578264541944</v>
       </c>
       <c r="D20" t="n">
-        <v>40.32448871524352</v>
+        <v>40.32448871524286</v>
       </c>
       <c r="E20" t="n">
         <v>74.03124113465174</v>
@@ -2096,7 +2096,7 @@
         <v>121.3905020356641</v>
       </c>
       <c r="H20" t="n">
-        <v>49.57372768156615</v>
+        <v>49.57372768156614</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2172,16 +2172,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I21" t="n">
-        <v>17.28437519296612</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>52.47517038390258</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.869455874161019</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2211,22 +2211,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>91.40897004168382</v>
       </c>
       <c r="W21" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2406,19 +2406,19 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>40.29345508181881</v>
+        <v>113.5538092836903</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>52.47517038390258</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="T24" t="n">
         <v>188.4979333192472</v>
@@ -2457,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2640,10 +2640,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>11.73039443350233</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2682,16 +2682,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T27" t="n">
-        <v>214.9709236054903</v>
+        <v>1.486173081489347</v>
       </c>
       <c r="U27" t="n">
-        <v>23.74331897288768</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V27" t="n">
-        <v>113.3190957091811</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
         <v>53.21983305301066</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.03224403444725</v>
+        <v>14.03224403444724</v>
       </c>
       <c r="T29" t="n">
-        <v>8.981130875818309</v>
+        <v>8.981130875818321</v>
       </c>
       <c r="U29" t="n">
         <v>36.66579096864882</v>
@@ -2871,19 +2871,19 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>125.7355245857741</v>
@@ -2925,10 +2925,10 @@
         <v>1.486173081489347</v>
       </c>
       <c r="U30" t="n">
-        <v>23.74331897288768</v>
+        <v>168.9527578244567</v>
       </c>
       <c r="V30" t="n">
-        <v>64.97897393600208</v>
+        <v>27.16417039140131</v>
       </c>
       <c r="W30" t="n">
         <v>53.21983305301066</v>
@@ -3035,7 +3035,7 @@
         <v>123.4596992513621</v>
       </c>
       <c r="E32" t="n">
-        <v>157.166451670771</v>
+        <v>157.1664516707709</v>
       </c>
       <c r="F32" t="n">
         <v>188.8867892491483</v>
@@ -3044,10 +3044,10 @@
         <v>204.5257125717833</v>
       </c>
       <c r="H32" t="n">
-        <v>132.7089382176854</v>
+        <v>132.7089382176853</v>
       </c>
       <c r="I32" t="n">
-        <v>26.69730882461084</v>
+        <v>26.69730882461081</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>13.20453416758298</v>
+        <v>13.20453416758295</v>
       </c>
       <c r="T32" t="n">
-        <v>8.153421008954041</v>
+        <v>8.153421008954012</v>
       </c>
       <c r="U32" t="n">
-        <v>35.83808110178455</v>
+        <v>35.83808110178452</v>
       </c>
       <c r="V32" t="n">
         <v>106.5673232182868</v>
@@ -3105,16 +3105,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>85.02167613758469</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>94.63389350274711</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>134.7198007890776</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.6584632146250792</v>
+        <v>0.6584632146250509</v>
       </c>
       <c r="U33" t="n">
-        <v>22.91560910602341</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V33" t="n">
-        <v>26.33646052453705</v>
+        <v>26.33646052453702</v>
       </c>
       <c r="W33" t="n">
-        <v>52.39212318614639</v>
+        <v>52.39212318614636</v>
       </c>
       <c r="X33" t="n">
-        <v>3.000454048605405</v>
+        <v>3.000454048605377</v>
       </c>
       <c r="Y33" t="n">
-        <v>223.3842861340256</v>
+        <v>9.071825743160389</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.12558397531536</v>
+        <v>21.12558397531533</v>
       </c>
       <c r="T34" t="n">
-        <v>9.44909805945781</v>
+        <v>9.449098059457782</v>
       </c>
       <c r="U34" t="n">
-        <v>74.34409657770041</v>
+        <v>74.34409657770038</v>
       </c>
       <c r="V34" t="n">
-        <v>30.7965547935847</v>
+        <v>30.79655479358468</v>
       </c>
       <c r="W34" t="n">
-        <v>75.99824669847013</v>
+        <v>75.9982466984701</v>
       </c>
       <c r="X34" t="n">
-        <v>7.606995017377329</v>
+        <v>7.606995017377301</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.828812423303219</v>
+        <v>2.828812423303191</v>
       </c>
     </row>
     <row r="35">
@@ -3345,10 +3345,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>50.81586271624742</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3396,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>194.28951058741</v>
       </c>
     </row>
     <row r="37">
@@ -3579,19 +3579,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>52.47517038390258</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.869455874161019</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>151.3017296652241</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>120.933857008893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3822,7 +3822,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3867,25 +3867,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>32.65512102243594</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2280694968886</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>25.69481436153555</v>
+        <v>231.366033823413</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -3980,13 +3980,13 @@
         <v>109.1957281657028</v>
       </c>
       <c r="D44" t="n">
-        <v>96.76239042675124</v>
+        <v>96.76239042675127</v>
       </c>
       <c r="E44" t="n">
         <v>130.4691428461601</v>
       </c>
       <c r="F44" t="n">
-        <v>162.1894804245374</v>
+        <v>162.1894804245375</v>
       </c>
       <c r="G44" t="n">
         <v>177.8284037471725</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.140772277173706</v>
+        <v>9.140772277173735</v>
       </c>
       <c r="V44" t="n">
-        <v>79.87001439367597</v>
+        <v>79.870014393676</v>
       </c>
       <c r="W44" t="n">
-        <v>96.88669461029085</v>
+        <v>96.88669461029087</v>
       </c>
       <c r="X44" t="n">
         <v>118.7729450792301</v>
       </c>
       <c r="Y44" t="n">
-        <v>141.2757982029738</v>
+        <v>141.2757982029739</v>
       </c>
     </row>
     <row r="45">
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4065,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>39.64107843054848</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4074,10 +4074,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J45" t="n">
-        <v>52.47517038390258</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4119,7 +4119,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>56.30888918280897</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>47.64678775308956</v>
+        <v>47.64678775308959</v>
       </c>
       <c r="V46" t="n">
-        <v>4.099245968973861</v>
+        <v>4.099245968973889</v>
       </c>
       <c r="W46" t="n">
-        <v>49.30093787385928</v>
+        <v>49.30093787385931</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4826,22 +4826,22 @@
         <v>6.590454258427762</v>
       </c>
       <c r="R8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="S8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="T8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="U8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="V8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="W8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="X8" t="n">
         <v>6.719070557086891</v>
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.487505264143985</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="C9" t="n">
-        <v>3.487505264143985</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="D9" t="n">
-        <v>3.487505264143985</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="E9" t="n">
-        <v>3.487505264143985</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="F9" t="n">
         <v>3.487505264143985</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="J9" t="n">
         <v>0.2559399712010781</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.295227129213883</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.295227129213883</v>
       </c>
       <c r="M9" t="n">
-        <v>3.42319711481442</v>
+        <v>3.295227129213883</v>
       </c>
       <c r="N9" t="n">
-        <v>6.590454258427762</v>
+        <v>6.462484272827225</v>
       </c>
       <c r="O9" t="n">
         <v>9.629741416440567</v>
@@ -4902,31 +4902,31 @@
         <v>12.79699856005391</v>
       </c>
       <c r="Q9" t="n">
-        <v>12.79699856005391</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="R9" t="n">
-        <v>12.79699856005391</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="S9" t="n">
-        <v>9.565433267111001</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="T9" t="n">
-        <v>6.333867974168094</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="U9" t="n">
-        <v>3.487505264143985</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="V9" t="n">
-        <v>3.487505264143985</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="W9" t="n">
-        <v>3.487505264143985</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="X9" t="n">
-        <v>3.487505264143985</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.487505264143985</v>
+        <v>6.719070557086891</v>
       </c>
     </row>
     <row r="10">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>353.8239890538421</v>
+        <v>379.2769725921645</v>
       </c>
       <c r="C11" t="n">
-        <v>353.8239890538421</v>
+        <v>205.4817875132643</v>
       </c>
       <c r="D11" t="n">
-        <v>353.8239890538421</v>
+        <v>205.4817875132643</v>
       </c>
       <c r="E11" t="n">
-        <v>268.9782572732726</v>
+        <v>205.4817875132643</v>
       </c>
       <c r="F11" t="n">
-        <v>268.9782572732726</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G11" t="n">
-        <v>78.57630442554813</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H11" t="n">
-        <v>78.57630442554813</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I11" t="n">
         <v>15.07983466553978</v>
@@ -5042,22 +5042,22 @@
         <v>115.4328134021288</v>
       </c>
       <c r="K11" t="n">
-        <v>285.1396746888279</v>
+        <v>115.4328134021288</v>
       </c>
       <c r="L11" t="n">
-        <v>331.8605171695881</v>
+        <v>302.0457673881835</v>
       </c>
       <c r="M11" t="n">
-        <v>518.4734711556429</v>
+        <v>488.6587213742383</v>
       </c>
       <c r="N11" t="n">
-        <v>705.0864251416976</v>
+        <v>563.9866145099307</v>
       </c>
       <c r="O11" t="n">
-        <v>753.991733276989</v>
+        <v>666.4395714324996</v>
       </c>
       <c r="P11" t="n">
-        <v>753.991733276989</v>
+        <v>666.4395714324996</v>
       </c>
       <c r="Q11" t="n">
         <v>753.991733276989</v>
@@ -5066,25 +5066,25 @@
         <v>753.991733276989</v>
       </c>
       <c r="S11" t="n">
-        <v>704.1243288271097</v>
+        <v>753.1480669970995</v>
       </c>
       <c r="T11" t="n">
-        <v>659.3590588808961</v>
+        <v>753.1480669970995</v>
       </c>
       <c r="U11" t="n">
-        <v>659.3590588808961</v>
+        <v>753.1480669970995</v>
       </c>
       <c r="V11" t="n">
-        <v>515.1858069050534</v>
+        <v>753.1480669970995</v>
       </c>
       <c r="W11" t="n">
-        <v>353.8239890538421</v>
+        <v>753.1480669970995</v>
       </c>
       <c r="X11" t="n">
-        <v>353.8239890538421</v>
+        <v>569.678925439889</v>
       </c>
       <c r="Y11" t="n">
-        <v>353.8239890538421</v>
+        <v>569.678925439889</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>260.9972365546573</v>
+        <v>174.7914425907165</v>
       </c>
       <c r="C12" t="n">
-        <v>251.5327038563764</v>
+        <v>165.3269098924356</v>
       </c>
       <c r="D12" t="n">
-        <v>251.5327038563764</v>
+        <v>165.3269098924356</v>
       </c>
       <c r="E12" t="n">
-        <v>77.96949997779083</v>
+        <v>165.3269098924356</v>
       </c>
       <c r="F12" t="n">
-        <v>77.96949997779083</v>
+        <v>165.3269098924356</v>
       </c>
       <c r="G12" t="n">
         <v>15.07983466553978</v>
@@ -5121,7 +5121,7 @@
         <v>15.07983466553978</v>
       </c>
       <c r="K12" t="n">
-        <v>53.04316068142018</v>
+        <v>53.04316068142017</v>
       </c>
       <c r="L12" t="n">
         <v>170.3760798097943</v>
@@ -5130,10 +5130,10 @@
         <v>352.0527264137997</v>
       </c>
       <c r="N12" t="n">
-        <v>538.6656803998546</v>
+        <v>538.6656803998545</v>
       </c>
       <c r="O12" t="n">
-        <v>670.3666200188891</v>
+        <v>670.366620018889</v>
       </c>
       <c r="P12" t="n">
         <v>753.991733276989</v>
@@ -5160,10 +5160,10 @@
         <v>490.9594422169301</v>
       </c>
       <c r="X12" t="n">
-        <v>451.3991894023818</v>
+        <v>399.0202470135686</v>
       </c>
       <c r="Y12" t="n">
-        <v>260.9972365546573</v>
+        <v>353.3272955176516</v>
       </c>
     </row>
     <row r="13">
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.60586471875846</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="C13" t="n">
-        <v>27.18003706804293</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D13" t="n">
-        <v>27.18003706804293</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E13" t="n">
-        <v>27.18003706804293</v>
+        <v>51.18723637697413</v>
       </c>
       <c r="F13" t="n">
-        <v>27.18003706804293</v>
+        <v>51.18723637697413</v>
       </c>
       <c r="G13" t="n">
-        <v>36.53305140169908</v>
+        <v>51.18723637697413</v>
       </c>
       <c r="H13" t="n">
-        <v>48.73367923511626</v>
+        <v>51.18723637697413</v>
       </c>
       <c r="I13" t="n">
-        <v>48.73367923511626</v>
+        <v>64.34957950122583</v>
       </c>
       <c r="J13" t="n">
-        <v>106.0632492395735</v>
+        <v>64.34957950122583</v>
       </c>
       <c r="K13" t="n">
-        <v>216.0703504133125</v>
+        <v>64.34957950122583</v>
       </c>
       <c r="L13" t="n">
-        <v>216.0703504133125</v>
+        <v>208.8860629270658</v>
       </c>
       <c r="M13" t="n">
-        <v>367.4724351799451</v>
+        <v>221.4421490729817</v>
       </c>
       <c r="N13" t="n">
-        <v>367.4724351799451</v>
+        <v>381.4539747889303</v>
       </c>
       <c r="O13" t="n">
-        <v>506.7351215336832</v>
+        <v>520.7166611426684</v>
       </c>
       <c r="P13" t="n">
         <v>520.7166611426684</v>
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>584.1866712667131</v>
+        <v>664.359855934685</v>
       </c>
       <c r="C14" t="n">
-        <v>410.3914861878131</v>
+        <v>586.2856932087133</v>
       </c>
       <c r="D14" t="n">
-        <v>249.155228117955</v>
+        <v>586.2856932087133</v>
       </c>
       <c r="E14" t="n">
-        <v>249.155228117955</v>
+        <v>395.8837403609888</v>
       </c>
       <c r="F14" t="n">
-        <v>249.155228117955</v>
+        <v>205.4817875132643</v>
       </c>
       <c r="G14" t="n">
-        <v>249.155228117955</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H14" t="n">
-        <v>78.57630442554814</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I14" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="J14" t="n">
-        <v>115.4328134021288</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K14" t="n">
-        <v>285.1396746888279</v>
+        <v>184.786695952239</v>
       </c>
       <c r="L14" t="n">
-        <v>452.2962455113191</v>
+        <v>231.5075384329992</v>
       </c>
       <c r="M14" t="n">
-        <v>533.1581445982664</v>
+        <v>312.3694375199465</v>
       </c>
       <c r="N14" t="n">
-        <v>719.7710985843212</v>
+        <v>498.9823915060012</v>
       </c>
       <c r="O14" t="n">
-        <v>753.991733276989</v>
+        <v>592.5660043930296</v>
       </c>
       <c r="P14" t="n">
         <v>753.991733276989</v>
@@ -5300,28 +5300,28 @@
         <v>753.991733276989</v>
       </c>
       <c r="R14" t="n">
-        <v>737.0894290049697</v>
+        <v>737.0894290049698</v>
       </c>
       <c r="S14" t="n">
-        <v>687.2220245550905</v>
+        <v>737.0894290049698</v>
       </c>
       <c r="T14" t="n">
-        <v>687.2220245550905</v>
+        <v>737.0894290049698</v>
       </c>
       <c r="U14" t="n">
-        <v>614.4924514848057</v>
+        <v>664.359855934685</v>
       </c>
       <c r="V14" t="n">
-        <v>614.4924514848057</v>
+        <v>664.359855934685</v>
       </c>
       <c r="W14" t="n">
-        <v>614.4924514848057</v>
+        <v>664.359855934685</v>
       </c>
       <c r="X14" t="n">
-        <v>614.4924514848057</v>
+        <v>664.359855934685</v>
       </c>
       <c r="Y14" t="n">
-        <v>584.1866712667131</v>
+        <v>664.359855934685</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>312.3300639924598</v>
+        <v>174.7914425907165</v>
       </c>
       <c r="C15" t="n">
-        <v>302.8655312941789</v>
+        <v>165.3269098924356</v>
       </c>
       <c r="D15" t="n">
-        <v>142.0854150552106</v>
+        <v>165.3269098924356</v>
       </c>
       <c r="E15" t="n">
-        <v>142.0854150552106</v>
+        <v>165.3269098924356</v>
       </c>
       <c r="F15" t="n">
-        <v>142.0854150552106</v>
+        <v>165.3269098924356</v>
       </c>
       <c r="G15" t="n">
-        <v>142.0854150552106</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H15" t="n">
         <v>15.07983466553978</v>
@@ -5358,49 +5358,49 @@
         <v>15.07983466553978</v>
       </c>
       <c r="K15" t="n">
-        <v>53.04316068142028</v>
+        <v>53.04316068142017</v>
       </c>
       <c r="L15" t="n">
-        <v>170.3760798097944</v>
+        <v>170.3760798097943</v>
       </c>
       <c r="M15" t="n">
-        <v>352.0527264137999</v>
+        <v>352.0527264137997</v>
       </c>
       <c r="N15" t="n">
-        <v>538.6656803998546</v>
+        <v>538.6656803998545</v>
       </c>
       <c r="O15" t="n">
-        <v>670.3666200188891</v>
+        <v>670.366620018889</v>
       </c>
       <c r="P15" t="n">
         <v>753.991733276989</v>
       </c>
       <c r="Q15" t="n">
-        <v>753.991733276989</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="R15" t="n">
-        <v>753.991733276989</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="S15" t="n">
-        <v>740.4134230073561</v>
+        <v>556.6509361119302</v>
       </c>
       <c r="T15" t="n">
-        <v>703.2188174998586</v>
+        <v>472.30402218411</v>
       </c>
       <c r="U15" t="n">
-        <v>643.5422464454941</v>
+        <v>412.6274511297455</v>
       </c>
       <c r="V15" t="n">
-        <v>487.0340960038785</v>
+        <v>349.495474602135</v>
       </c>
       <c r="W15" t="n">
-        <v>397.5832683029251</v>
+        <v>260.0446469011817</v>
       </c>
       <c r="X15" t="n">
-        <v>358.0230154883768</v>
+        <v>220.4843940866334</v>
       </c>
       <c r="Y15" t="n">
-        <v>312.3300639924598</v>
+        <v>174.7914425907165</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.07983466553978</v>
+        <v>248.8809368530796</v>
       </c>
       <c r="C16" t="n">
-        <v>15.07983466553978</v>
+        <v>260.4551092023641</v>
       </c>
       <c r="D16" t="n">
-        <v>15.07983466553978</v>
+        <v>293.0910669656977</v>
       </c>
       <c r="E16" t="n">
-        <v>51.18723637697413</v>
+        <v>329.1984686771321</v>
       </c>
       <c r="F16" t="n">
-        <v>51.18723637697413</v>
+        <v>368.0276367924071</v>
       </c>
       <c r="G16" t="n">
-        <v>60.54025071063027</v>
+        <v>377.3806511260633</v>
       </c>
       <c r="H16" t="n">
-        <v>60.54025071063027</v>
+        <v>389.5812789594805</v>
       </c>
       <c r="I16" t="n">
-        <v>73.70259383488198</v>
+        <v>402.7436220837323</v>
       </c>
       <c r="J16" t="n">
-        <v>73.70259383488198</v>
+        <v>460.0731920881896</v>
       </c>
       <c r="K16" t="n">
-        <v>73.70259383488198</v>
+        <v>460.0731920881896</v>
       </c>
       <c r="L16" t="n">
-        <v>218.239077260722</v>
+        <v>604.6096755140297</v>
       </c>
       <c r="M16" t="n">
-        <v>310.282870019235</v>
+        <v>604.6096755140297</v>
       </c>
       <c r="N16" t="n">
-        <v>470.2946957351836</v>
+        <v>703.5697678695042</v>
       </c>
       <c r="O16" t="n">
-        <v>470.2946957351836</v>
+        <v>703.5697678695042</v>
       </c>
       <c r="P16" t="n">
-        <v>470.2946957351836</v>
+        <v>703.5697678695042</v>
       </c>
       <c r="Q16" t="n">
-        <v>520.7166611426684</v>
+        <v>753.991733276989</v>
       </c>
       <c r="R16" t="n">
-        <v>495.1795934633085</v>
+        <v>728.4546655976291</v>
       </c>
       <c r="S16" t="n">
-        <v>437.3111286015784</v>
+        <v>670.5862007358991</v>
       </c>
       <c r="T16" t="n">
-        <v>391.2370939578862</v>
+        <v>624.5121660922069</v>
       </c>
       <c r="U16" t="n">
-        <v>279.6125557604136</v>
+        <v>512.8876278947345</v>
       </c>
       <c r="V16" t="n">
-        <v>211.9754335064923</v>
+        <v>445.2505056408132</v>
       </c>
       <c r="W16" t="n">
-        <v>98.68003660117151</v>
+        <v>331.9551087354924</v>
       </c>
       <c r="X16" t="n">
-        <v>54.46671210099498</v>
+        <v>287.741784235316</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.07983466553978</v>
+        <v>248.3549067998609</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3923242961946</v>
+        <v>463.3923242961948</v>
       </c>
       <c r="C17" t="n">
-        <v>410.101590504079</v>
+        <v>410.1015905040792</v>
       </c>
       <c r="D17" t="n">
-        <v>369.3697837210054</v>
+        <v>369.3697837210056</v>
       </c>
       <c r="E17" t="n">
-        <v>294.5907522718622</v>
+        <v>294.5907522718625</v>
       </c>
       <c r="F17" t="n">
-        <v>187.770975794055</v>
+        <v>187.7709757940553</v>
       </c>
       <c r="G17" t="n">
-        <v>65.15430707116215</v>
+        <v>65.15430707116217</v>
       </c>
       <c r="H17" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="I17" t="n">
-        <v>15.07983466553978</v>
+        <v>70.95335735993307</v>
       </c>
       <c r="J17" t="n">
-        <v>201.6927886515946</v>
+        <v>70.95335735993307</v>
       </c>
       <c r="K17" t="n">
-        <v>201.6927886515946</v>
+        <v>70.95335735993307</v>
       </c>
       <c r="L17" t="n">
-        <v>248.4136311323547</v>
+        <v>257.5663113459879</v>
       </c>
       <c r="M17" t="n">
-        <v>329.275530219302</v>
+        <v>338.4282104329352</v>
       </c>
       <c r="N17" t="n">
-        <v>431.617680309095</v>
+        <v>413.7561035686276</v>
       </c>
       <c r="O17" t="n">
-        <v>465.8383150017628</v>
+        <v>531.3951392159327</v>
       </c>
       <c r="P17" t="n">
-        <v>652.4512689878176</v>
+        <v>531.3951392159327</v>
       </c>
       <c r="Q17" t="n">
-        <v>652.4512689878176</v>
+        <v>531.3951392159327</v>
       </c>
       <c r="R17" t="n">
-        <v>753.991733276989</v>
+        <v>632.935603505104</v>
       </c>
       <c r="S17" t="n">
-        <v>753.991733276989</v>
+        <v>632.935603505104</v>
       </c>
       <c r="T17" t="n">
-        <v>753.991733276989</v>
+        <v>707.1675751369976</v>
       </c>
       <c r="U17" t="n">
         <v>753.991733276989</v>
       </c>
       <c r="V17" t="n">
-        <v>730.3229325879306</v>
+        <v>730.3229325879308</v>
       </c>
       <c r="W17" t="n">
-        <v>689.4655660235039</v>
+        <v>689.4655660235042</v>
       </c>
       <c r="X17" t="n">
-        <v>626.5008757530779</v>
+        <v>626.5008757530782</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.8060308122036</v>
+        <v>540.8060308122039</v>
       </c>
     </row>
     <row r="18">
@@ -5568,46 +5568,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>373.18782758154</v>
+        <v>248.9733206446752</v>
       </c>
       <c r="C18" t="n">
-        <v>373.18782758154</v>
+        <v>248.9733206446752</v>
       </c>
       <c r="D18" t="n">
-        <v>212.4077113425717</v>
+        <v>248.9733206446752</v>
       </c>
       <c r="E18" t="n">
-        <v>212.4077113425717</v>
+        <v>248.9733206446752</v>
       </c>
       <c r="F18" t="n">
-        <v>212.4077113425717</v>
+        <v>88.54560436191929</v>
       </c>
       <c r="G18" t="n">
-        <v>142.0854150552106</v>
+        <v>88.54560436191929</v>
       </c>
       <c r="H18" t="n">
-        <v>15.07983466553978</v>
+        <v>88.54560436191929</v>
       </c>
       <c r="I18" t="n">
-        <v>15.07983466553978</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="J18" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="K18" t="n">
-        <v>53.0431606814202</v>
+        <v>53.04316068142017</v>
       </c>
       <c r="L18" t="n">
-        <v>170.3760798097944</v>
+        <v>170.3760798097943</v>
       </c>
       <c r="M18" t="n">
-        <v>352.0527264137999</v>
+        <v>352.0527264137997</v>
       </c>
       <c r="N18" t="n">
-        <v>538.6656803998546</v>
+        <v>538.6656803998545</v>
       </c>
       <c r="O18" t="n">
-        <v>670.3666200188891</v>
+        <v>670.366620018889</v>
       </c>
       <c r="P18" t="n">
         <v>753.991733276989</v>
@@ -5616,28 +5616,28 @@
         <v>753.991733276989</v>
       </c>
       <c r="R18" t="n">
-        <v>753.991733276989</v>
+        <v>617.9111264193348</v>
       </c>
       <c r="S18" t="n">
-        <v>753.991733276989</v>
+        <v>617.9111264193348</v>
       </c>
       <c r="T18" t="n">
-        <v>753.991733276989</v>
+        <v>617.9111264193348</v>
       </c>
       <c r="U18" t="n">
-        <v>753.991733276989</v>
+        <v>617.9111264193348</v>
       </c>
       <c r="V18" t="n">
-        <v>753.991733276989</v>
+        <v>617.9111264193348</v>
       </c>
       <c r="W18" t="n">
-        <v>563.5897804292645</v>
+        <v>617.9111264193348</v>
       </c>
       <c r="X18" t="n">
-        <v>563.5897804292645</v>
+        <v>427.5091735716103</v>
       </c>
       <c r="Y18" t="n">
-        <v>373.18782758154</v>
+        <v>427.5091735716103</v>
       </c>
     </row>
     <row r="19">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3923242961946</v>
+        <v>463.3923242961948</v>
       </c>
       <c r="C20" t="n">
-        <v>410.101590504079</v>
+        <v>410.1015905040792</v>
       </c>
       <c r="D20" t="n">
-        <v>369.3697837210055</v>
+        <v>369.3697837210054</v>
       </c>
       <c r="E20" t="n">
-        <v>294.5907522718624</v>
+        <v>294.5907522718619</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7709757940552</v>
+        <v>187.7709757940547</v>
       </c>
       <c r="G20" t="n">
-        <v>65.15430707116217</v>
+        <v>65.15430707116215</v>
       </c>
       <c r="H20" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="I20" t="n">
-        <v>15.07983466553978</v>
+        <v>70.95335735993307</v>
       </c>
       <c r="J20" t="n">
-        <v>15.07983466553978</v>
+        <v>70.95335735993307</v>
       </c>
       <c r="K20" t="n">
-        <v>15.07983466553978</v>
+        <v>70.95335735993307</v>
       </c>
       <c r="L20" t="n">
-        <v>61.80067714629993</v>
+        <v>257.5663113459879</v>
       </c>
       <c r="M20" t="n">
-        <v>248.4136311323547</v>
+        <v>444.1792653320426</v>
       </c>
       <c r="N20" t="n">
-        <v>323.7415242680471</v>
+        <v>519.5071584677351</v>
       </c>
       <c r="O20" t="n">
-        <v>357.9621589607149</v>
+        <v>706.1201124537898</v>
       </c>
       <c r="P20" t="n">
-        <v>544.5751129467697</v>
+        <v>706.1201124537898</v>
       </c>
       <c r="Q20" t="n">
-        <v>544.5751129467697</v>
+        <v>706.1201124537898</v>
       </c>
       <c r="R20" t="n">
-        <v>610.5283920402445</v>
+        <v>706.1201124537898</v>
       </c>
       <c r="S20" t="n">
-        <v>679.7597616450954</v>
+        <v>706.1201124537898</v>
       </c>
       <c r="T20" t="n">
-        <v>753.991733276989</v>
+        <v>707.1675751369976</v>
       </c>
       <c r="U20" t="n">
         <v>753.991733276989</v>
       </c>
       <c r="V20" t="n">
-        <v>730.3229325879307</v>
+        <v>730.3229325879306</v>
       </c>
       <c r="W20" t="n">
-        <v>689.4655660235039</v>
+        <v>689.4655660235042</v>
       </c>
       <c r="X20" t="n">
-        <v>626.5008757530779</v>
+        <v>626.5008757530782</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.8060308122036</v>
+        <v>540.8060308122039</v>
       </c>
     </row>
     <row r="21">
@@ -5805,34 +5805,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>182.7858747338155</v>
+        <v>464.3186431405323</v>
       </c>
       <c r="C21" t="n">
-        <v>182.7858747338155</v>
+        <v>464.3186431405323</v>
       </c>
       <c r="D21" t="n">
-        <v>182.7858747338155</v>
+        <v>303.5385269015641</v>
       </c>
       <c r="E21" t="n">
-        <v>182.7858747338155</v>
+        <v>303.5385269015641</v>
       </c>
       <c r="F21" t="n">
-        <v>182.7858747338155</v>
+        <v>303.5385269015641</v>
       </c>
       <c r="G21" t="n">
-        <v>32.5387995069197</v>
+        <v>303.5385269015641</v>
       </c>
       <c r="H21" t="n">
-        <v>32.5387995069197</v>
+        <v>176.5329465118933</v>
       </c>
       <c r="I21" t="n">
-        <v>15.07983466553978</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="J21" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="K21" t="n">
-        <v>53.04316068142018</v>
+        <v>53.04316068142019</v>
       </c>
       <c r="L21" t="n">
         <v>170.3760798097943</v>
@@ -5850,31 +5850,31 @@
         <v>753.991733276989</v>
       </c>
       <c r="Q21" t="n">
-        <v>753.991733276989</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="R21" t="n">
-        <v>753.991733276989</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="S21" t="n">
-        <v>753.991733276989</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="T21" t="n">
-        <v>753.991733276989</v>
+        <v>556.6509361119302</v>
       </c>
       <c r="U21" t="n">
-        <v>753.991733276989</v>
+        <v>556.6509361119302</v>
       </c>
       <c r="V21" t="n">
-        <v>753.991733276989</v>
+        <v>464.3186431405323</v>
       </c>
       <c r="W21" t="n">
-        <v>563.5897804292645</v>
+        <v>464.3186431405323</v>
       </c>
       <c r="X21" t="n">
-        <v>373.18782758154</v>
+        <v>464.3186431405323</v>
       </c>
       <c r="Y21" t="n">
-        <v>182.7858747338155</v>
+        <v>464.3186431405323</v>
       </c>
     </row>
     <row r="22">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.3923242961948</v>
+        <v>463.392324296194</v>
       </c>
       <c r="C23" t="n">
-        <v>410.1015905040792</v>
+        <v>410.1015905040784</v>
       </c>
       <c r="D23" t="n">
-        <v>369.3697837210054</v>
+        <v>369.3697837210051</v>
       </c>
       <c r="E23" t="n">
-        <v>294.5907522718619</v>
+        <v>294.5907522718618</v>
       </c>
       <c r="F23" t="n">
-        <v>187.7709757940547</v>
+        <v>187.7709757940548</v>
       </c>
       <c r="G23" t="n">
         <v>65.15430707116215</v>
@@ -5990,49 +5990,49 @@
         <v>15.07983466553978</v>
       </c>
       <c r="K23" t="n">
-        <v>201.6927886515946</v>
+        <v>201.6927886515945</v>
       </c>
       <c r="L23" t="n">
-        <v>388.3057426376494</v>
+        <v>388.3057426376492</v>
       </c>
       <c r="M23" t="n">
-        <v>542.9027411594574</v>
+        <v>574.918696623704</v>
       </c>
       <c r="N23" t="n">
-        <v>618.2306342951498</v>
+        <v>672.9469404443297</v>
       </c>
       <c r="O23" t="n">
-        <v>652.4512689878176</v>
+        <v>707.1675751369975</v>
       </c>
       <c r="P23" t="n">
-        <v>652.4512689878176</v>
+        <v>707.1675751369975</v>
       </c>
       <c r="Q23" t="n">
-        <v>652.4512689878176</v>
+        <v>707.1675751369975</v>
       </c>
       <c r="R23" t="n">
-        <v>753.991733276989</v>
+        <v>707.1675751369975</v>
       </c>
       <c r="S23" t="n">
-        <v>753.991733276989</v>
+        <v>707.1675751369975</v>
       </c>
       <c r="T23" t="n">
-        <v>753.991733276989</v>
+        <v>707.1675751369975</v>
       </c>
       <c r="U23" t="n">
-        <v>753.991733276989</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="V23" t="n">
-        <v>730.3229325879306</v>
+        <v>730.3229325879303</v>
       </c>
       <c r="W23" t="n">
-        <v>689.4655660235042</v>
+        <v>689.4655660235034</v>
       </c>
       <c r="X23" t="n">
-        <v>626.5008757530782</v>
+        <v>626.5008757530774</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.8060308122039</v>
+        <v>540.8060308122031</v>
       </c>
     </row>
     <row r="24">
@@ -6042,34 +6042,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>182.7858747338155</v>
+        <v>182.7858747338154</v>
       </c>
       <c r="C24" t="n">
-        <v>182.7858747338155</v>
+        <v>182.7858747338154</v>
       </c>
       <c r="D24" t="n">
-        <v>182.7858747338155</v>
+        <v>182.7858747338154</v>
       </c>
       <c r="E24" t="n">
-        <v>182.7858747338155</v>
+        <v>182.7858747338154</v>
       </c>
       <c r="F24" t="n">
-        <v>142.0854150552106</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="G24" t="n">
-        <v>142.0854150552106</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="H24" t="n">
-        <v>15.07983466553978</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="I24" t="n">
-        <v>15.07983466553978</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="J24" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="K24" t="n">
-        <v>53.04316068142018</v>
+        <v>53.04316068142017</v>
       </c>
       <c r="L24" t="n">
         <v>170.3760798097943</v>
@@ -6081,37 +6081,37 @@
         <v>538.6656803998545</v>
       </c>
       <c r="O24" t="n">
-        <v>670.366620018889</v>
+        <v>670.3666200188889</v>
       </c>
       <c r="P24" t="n">
-        <v>753.991733276989</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="Q24" t="n">
-        <v>753.991733276989</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="R24" t="n">
-        <v>753.991733276989</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="S24" t="n">
-        <v>753.991733276989</v>
+        <v>563.5897804292644</v>
       </c>
       <c r="T24" t="n">
-        <v>563.5897804292645</v>
+        <v>373.1878275815399</v>
       </c>
       <c r="U24" t="n">
-        <v>563.5897804292645</v>
+        <v>373.1878275815399</v>
       </c>
       <c r="V24" t="n">
-        <v>563.5897804292645</v>
+        <v>373.1878275815399</v>
       </c>
       <c r="W24" t="n">
-        <v>373.18782758154</v>
+        <v>373.1878275815399</v>
       </c>
       <c r="X24" t="n">
-        <v>373.18782758154</v>
+        <v>373.1878275815399</v>
       </c>
       <c r="Y24" t="n">
-        <v>182.7858747338155</v>
+        <v>182.7858747338154</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.07983466553978</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="C25" t="n">
-        <v>15.07983466553978</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="D25" t="n">
-        <v>15.07983466553978</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="E25" t="n">
-        <v>15.07983466553978</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="F25" t="n">
-        <v>15.07983466553978</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="G25" t="n">
-        <v>15.07983466553978</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="H25" t="n">
-        <v>15.07983466553978</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="I25" t="n">
-        <v>15.07983466553978</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="J25" t="n">
-        <v>15.07983466553978</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="K25" t="n">
-        <v>15.07983466553978</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="L25" t="n">
-        <v>15.07983466553978</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="M25" t="n">
-        <v>15.07983466553978</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="N25" t="n">
-        <v>15.07983466553978</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="O25" t="n">
-        <v>15.07983466553978</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="P25" t="n">
-        <v>15.07983466553978</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.07983466553978</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="R25" t="n">
-        <v>15.07983466553978</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="S25" t="n">
-        <v>15.07983466553978</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="T25" t="n">
-        <v>15.07983466553978</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="U25" t="n">
-        <v>15.07983466553978</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="V25" t="n">
-        <v>15.07983466553978</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="W25" t="n">
-        <v>15.07983466553978</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="X25" t="n">
-        <v>15.07983466553978</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.07983466553978</v>
+        <v>753.9917332769888</v>
       </c>
     </row>
     <row r="26">
@@ -6203,49 +6203,49 @@
         <v>1020.898422489611</v>
       </c>
       <c r="C26" t="n">
-        <v>882.7966579874112</v>
+        <v>882.7966579874113</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2538204942533</v>
+        <v>757.2538204942534</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6637583350258</v>
+        <v>597.6637583350259</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0329511471343</v>
+        <v>406.0329511471344</v>
       </c>
       <c r="G26" t="n">
-        <v>198.605251714157</v>
+        <v>198.6052517141569</v>
       </c>
       <c r="H26" t="n">
-        <v>63.71974859845028</v>
+        <v>63.71974859845027</v>
       </c>
       <c r="I26" t="n">
-        <v>35.91669941514209</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="J26" t="n">
-        <v>171.2527996589549</v>
+        <v>171.2527996589554</v>
       </c>
       <c r="K26" t="n">
-        <v>375.942782452878</v>
+        <v>375.9427824528783</v>
       </c>
       <c r="L26" t="n">
-        <v>634.013527952399</v>
+        <v>634.0135279523994</v>
       </c>
       <c r="M26" t="n">
-        <v>926.2253300581073</v>
+        <v>926.2253300581076</v>
       </c>
       <c r="N26" t="n">
-        <v>1212.90312621256</v>
+        <v>1212.903126212561</v>
       </c>
       <c r="O26" t="n">
-        <v>1458.473663923989</v>
+        <v>1458.47366392399</v>
       </c>
       <c r="P26" t="n">
-        <v>1654.882514315172</v>
+        <v>1654.882514315173</v>
       </c>
       <c r="Q26" t="n">
-        <v>1777.417797666885</v>
+        <v>1777.417797666886</v>
       </c>
       <c r="R26" t="n">
         <v>1795.834970757104</v>
@@ -6254,22 +6254,22 @@
         <v>1781.660986883925</v>
       </c>
       <c r="T26" t="n">
-        <v>1772.589137514412</v>
+        <v>1772.589137514411</v>
       </c>
       <c r="U26" t="n">
         <v>1735.552985020827</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.073153621684</v>
+        <v>1627.073153621685</v>
       </c>
       <c r="W26" t="n">
-        <v>1501.404756347173</v>
+        <v>1501.404756347174</v>
       </c>
       <c r="X26" t="n">
         <v>1353.629035366663</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.123159715704</v>
+        <v>1183.123159715705</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>369.9076195764835</v>
+        <v>1050.479932987114</v>
       </c>
       <c r="C27" t="n">
-        <v>369.9076195764835</v>
+        <v>1050.479932987114</v>
       </c>
       <c r="D27" t="n">
-        <v>369.9076195764835</v>
+        <v>1050.479932987114</v>
       </c>
       <c r="E27" t="n">
-        <v>196.344415697898</v>
+        <v>1050.479932987114</v>
       </c>
       <c r="F27" t="n">
-        <v>35.91669941514209</v>
+        <v>1038.63104972095</v>
       </c>
       <c r="G27" t="n">
-        <v>35.91669941514209</v>
+        <v>1038.63104972095</v>
       </c>
       <c r="H27" t="n">
-        <v>35.91669941514209</v>
+        <v>1038.63104972095</v>
       </c>
       <c r="I27" t="n">
-        <v>35.91669941514209</v>
+        <v>1038.63104972095</v>
       </c>
       <c r="J27" t="n">
-        <v>35.91669941514209</v>
+        <v>1038.63104972095</v>
       </c>
       <c r="K27" t="n">
-        <v>73.88002543102249</v>
+        <v>1076.59437573683</v>
       </c>
       <c r="L27" t="n">
-        <v>191.2129445593966</v>
+        <v>1193.927294865205</v>
       </c>
       <c r="M27" t="n">
-        <v>372.8895911634021</v>
+        <v>1375.60394146921</v>
       </c>
       <c r="N27" t="n">
-        <v>577.7945675741613</v>
+        <v>1580.508917879969</v>
       </c>
       <c r="O27" t="n">
-        <v>709.4955071931957</v>
+        <v>1712.209857499004</v>
       </c>
       <c r="P27" t="n">
-        <v>793.1206204512957</v>
+        <v>1795.834970757104</v>
       </c>
       <c r="Q27" t="n">
-        <v>793.1206204512957</v>
+        <v>1795.834970757104</v>
       </c>
       <c r="R27" t="n">
-        <v>793.1206204512957</v>
+        <v>1795.834970757104</v>
       </c>
       <c r="S27" t="n">
-        <v>793.1206204512957</v>
+        <v>1602.308918918715</v>
       </c>
       <c r="T27" t="n">
-        <v>575.9782733750429</v>
+        <v>1600.807733987918</v>
       </c>
       <c r="U27" t="n">
-        <v>551.9951228973786</v>
+        <v>1361.183421364798</v>
       </c>
       <c r="V27" t="n">
-        <v>437.5313898578017</v>
+        <v>1118.103703268432</v>
       </c>
       <c r="W27" t="n">
-        <v>383.7739827335485</v>
+        <v>1064.346296144179</v>
       </c>
       <c r="X27" t="n">
-        <v>379.9071504957004</v>
+        <v>1060.479463906331</v>
       </c>
       <c r="Y27" t="n">
-        <v>369.9076195764835</v>
+        <v>1050.479932987114</v>
       </c>
     </row>
     <row r="28">
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.91669941514209</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="C28" t="n">
-        <v>39.45915990230473</v>
+        <v>74.07595199421161</v>
       </c>
       <c r="D28" t="n">
-        <v>39.45915990230473</v>
+        <v>74.07595199421161</v>
       </c>
       <c r="E28" t="n">
-        <v>39.45915990230473</v>
+        <v>145.1664752128698</v>
       </c>
       <c r="F28" t="n">
-        <v>39.45915990230473</v>
+        <v>218.9787648353685</v>
       </c>
       <c r="G28" t="n">
-        <v>39.45915990230473</v>
+        <v>218.9787648353685</v>
       </c>
       <c r="H28" t="n">
-        <v>86.64290924294573</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="I28" t="n">
-        <v>86.64290924294573</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="J28" t="n">
-        <v>86.64290924294573</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="K28" t="n">
-        <v>86.64290924294573</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="L28" t="n">
         <v>266.1625141760096</v>
@@ -6409,25 +6409,25 @@
         <v>266.1625141760096</v>
       </c>
       <c r="S28" t="n">
-        <v>243.9874698909797</v>
+        <v>243.9874698909796</v>
       </c>
       <c r="T28" t="n">
-        <v>233.6068558239877</v>
+        <v>233.6068558239876</v>
       </c>
       <c r="U28" t="n">
-        <v>157.6757382032153</v>
+        <v>157.6757382032152</v>
       </c>
       <c r="V28" t="n">
         <v>125.7320365259941</v>
       </c>
       <c r="W28" t="n">
-        <v>48.13006019737349</v>
+        <v>48.13006019737347</v>
       </c>
       <c r="X28" t="n">
-        <v>39.61015627389713</v>
+        <v>39.6101562738971</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.91669941514209</v>
+        <v>35.91669941514207</v>
       </c>
     </row>
     <row r="29">
@@ -6440,46 +6440,46 @@
         <v>1020.898422489611</v>
       </c>
       <c r="C29" t="n">
-        <v>882.7966579874112</v>
+        <v>882.7966579874109</v>
       </c>
       <c r="D29" t="n">
-        <v>757.2538204942533</v>
+        <v>757.253820494253</v>
       </c>
       <c r="E29" t="n">
-        <v>597.6637583350258</v>
+        <v>597.6637583350255</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0329511471343</v>
+        <v>406.032951147134</v>
       </c>
       <c r="G29" t="n">
-        <v>198.605251714157</v>
+        <v>198.6052517141567</v>
       </c>
       <c r="H29" t="n">
         <v>63.71974859845027</v>
       </c>
       <c r="I29" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="J29" t="n">
         <v>171.2527996589549</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9427824528784</v>
+        <v>375.9427824528779</v>
       </c>
       <c r="L29" t="n">
-        <v>634.0135279523995</v>
+        <v>634.0135279523989</v>
       </c>
       <c r="M29" t="n">
-        <v>926.2253300581079</v>
+        <v>926.225330058107</v>
       </c>
       <c r="N29" t="n">
-        <v>1212.903126212561</v>
+        <v>1212.90312621256</v>
       </c>
       <c r="O29" t="n">
-        <v>1458.47366392399</v>
+        <v>1458.473663923989</v>
       </c>
       <c r="P29" t="n">
-        <v>1654.882514315173</v>
+        <v>1654.882514315172</v>
       </c>
       <c r="Q29" t="n">
         <v>1777.417797666886</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>634.3771875534329</v>
+        <v>1528.612108256243</v>
       </c>
       <c r="C30" t="n">
-        <v>634.3771875534329</v>
+        <v>1339.199833989206</v>
       </c>
       <c r="D30" t="n">
-        <v>473.5970713144646</v>
+        <v>1339.199833989206</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5970713144646</v>
+        <v>1165.636630110621</v>
       </c>
       <c r="F30" t="n">
-        <v>313.1693550317087</v>
+        <v>1165.636630110621</v>
       </c>
       <c r="G30" t="n">
-        <v>162.9222798048129</v>
+        <v>1165.636630110621</v>
       </c>
       <c r="H30" t="n">
-        <v>35.91669941514208</v>
+        <v>1038.63104972095</v>
       </c>
       <c r="I30" t="n">
-        <v>35.91669941514208</v>
+        <v>1038.63104972095</v>
       </c>
       <c r="J30" t="n">
-        <v>35.91669941514208</v>
+        <v>1038.63104972095</v>
       </c>
       <c r="K30" t="n">
-        <v>73.88002543102247</v>
+        <v>1076.59437573683</v>
       </c>
       <c r="L30" t="n">
-        <v>191.2129445593966</v>
+        <v>1193.927294865205</v>
       </c>
       <c r="M30" t="n">
-        <v>372.8895911634021</v>
+        <v>1375.60394146921</v>
       </c>
       <c r="N30" t="n">
-        <v>577.7945675741613</v>
+        <v>1580.508917879969</v>
       </c>
       <c r="O30" t="n">
-        <v>709.4955071931957</v>
+        <v>1712.209857499004</v>
       </c>
       <c r="P30" t="n">
-        <v>793.1206204512957</v>
+        <v>1795.834970757104</v>
       </c>
       <c r="Q30" t="n">
-        <v>793.1206204512957</v>
+        <v>1795.834970757104</v>
       </c>
       <c r="R30" t="n">
-        <v>793.1206204512957</v>
+        <v>1795.834970757104</v>
       </c>
       <c r="S30" t="n">
-        <v>793.1206204512957</v>
+        <v>1795.834970757104</v>
       </c>
       <c r="T30" t="n">
-        <v>791.6194355204984</v>
+        <v>1794.333785826306</v>
       </c>
       <c r="U30" t="n">
-        <v>767.6362850428341</v>
+        <v>1623.674434488471</v>
       </c>
       <c r="V30" t="n">
-        <v>702.0009578347511</v>
+        <v>1596.235878537561</v>
       </c>
       <c r="W30" t="n">
-        <v>648.243550710498</v>
+        <v>1542.478471413308</v>
       </c>
       <c r="X30" t="n">
-        <v>644.3767184726498</v>
+        <v>1538.611639175459</v>
       </c>
       <c r="Y30" t="n">
-        <v>634.3771875534329</v>
+        <v>1528.612108256243</v>
       </c>
     </row>
     <row r="31">
@@ -6595,64 +6595,64 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="C31" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="D31" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="E31" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="F31" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="G31" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="H31" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="I31" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="J31" t="n">
-        <v>76.68866776826258</v>
+        <v>91.91670631504763</v>
       </c>
       <c r="K31" t="n">
-        <v>76.68866776826258</v>
+        <v>91.91670631504763</v>
       </c>
       <c r="L31" t="n">
-        <v>256.2082727013265</v>
+        <v>91.91670631504763</v>
       </c>
       <c r="M31" t="n">
-        <v>256.2082727013265</v>
+        <v>91.91670631504763</v>
       </c>
       <c r="N31" t="n">
-        <v>256.2082727013265</v>
+        <v>91.91670631504763</v>
       </c>
       <c r="O31" t="n">
-        <v>256.2082727013265</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="P31" t="n">
-        <v>256.2082727013265</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="Q31" t="n">
-        <v>256.2082727013265</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="R31" t="n">
         <v>266.1625141760096</v>
       </c>
       <c r="S31" t="n">
-        <v>243.9874698909797</v>
+        <v>243.9874698909796</v>
       </c>
       <c r="T31" t="n">
-        <v>233.6068558239877</v>
+        <v>233.6068558239876</v>
       </c>
       <c r="U31" t="n">
-        <v>157.6757382032153</v>
+        <v>157.6757382032152</v>
       </c>
       <c r="V31" t="n">
         <v>125.7320365259941</v>
@@ -6661,10 +6661,10 @@
         <v>48.13006019737347</v>
       </c>
       <c r="X31" t="n">
-        <v>39.61015627389711</v>
+        <v>39.6101562738971</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
     </row>
     <row r="32">
@@ -6677,46 +6677,46 @@
         <v>1014.789988510278</v>
       </c>
       <c r="C32" t="n">
-        <v>877.5242945806683</v>
+        <v>877.5242945806682</v>
       </c>
       <c r="D32" t="n">
-        <v>752.8175276601005</v>
+        <v>752.8175276601004</v>
       </c>
       <c r="E32" t="n">
-        <v>594.0635360734632</v>
+        <v>594.0635360734631</v>
       </c>
       <c r="F32" t="n">
         <v>403.2687994581618</v>
       </c>
       <c r="G32" t="n">
-        <v>196.6771705977746</v>
+        <v>196.6771705977754</v>
       </c>
       <c r="H32" t="n">
-        <v>62.62773805465902</v>
+        <v>62.62773805465899</v>
       </c>
       <c r="I32" t="n">
         <v>35.660759443941</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8162924559495</v>
+        <v>151.9003389533359</v>
       </c>
       <c r="K32" t="n">
-        <v>377.3257080180681</v>
+        <v>357.4097545154546</v>
       </c>
       <c r="L32" t="n">
-        <v>636.2158862857848</v>
+        <v>616.2999327831712</v>
       </c>
       <c r="M32" t="n">
-        <v>929.2471211596887</v>
+        <v>909.3311676570751</v>
       </c>
       <c r="N32" t="n">
-        <v>1216.744350082338</v>
+        <v>1196.828396579724</v>
       </c>
       <c r="O32" t="n">
-        <v>1463.134320561962</v>
+        <v>1443.218367059349</v>
       </c>
       <c r="P32" t="n">
-        <v>1640.446650218728</v>
+        <v>1640.446650218727</v>
       </c>
       <c r="Q32" t="n">
         <v>1763.801366338636</v>
@@ -6728,19 +6728,19 @@
         <v>1769.700058896461</v>
       </c>
       <c r="T32" t="n">
-        <v>1761.464280099538</v>
+        <v>1761.464280099537</v>
       </c>
       <c r="U32" t="n">
         <v>1725.264198178543</v>
       </c>
       <c r="V32" t="n">
-        <v>1617.620437351991</v>
+        <v>1617.62043735199</v>
       </c>
       <c r="W32" t="n">
-        <v>1492.78811065007</v>
+        <v>1492.788110650069</v>
       </c>
       <c r="X32" t="n">
-        <v>1345.84846024215</v>
+        <v>1345.848460242149</v>
       </c>
       <c r="Y32" t="n">
         <v>1176.178655163781</v>
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>131.2505508608573</v>
+        <v>282.3213566299645</v>
       </c>
       <c r="C33" t="n">
-        <v>131.2505508608573</v>
+        <v>282.3213566299645</v>
       </c>
       <c r="D33" t="n">
-        <v>131.2505508608573</v>
+        <v>121.5412403909963</v>
       </c>
       <c r="E33" t="n">
-        <v>131.2505508608573</v>
+        <v>35.660759443941</v>
       </c>
       <c r="F33" t="n">
-        <v>131.2505508608573</v>
+        <v>35.660759443941</v>
       </c>
       <c r="G33" t="n">
-        <v>131.2505508608573</v>
+        <v>35.660759443941</v>
       </c>
       <c r="H33" t="n">
         <v>35.660759443941</v>
@@ -6780,49 +6780,49 @@
         <v>35.660759443941</v>
       </c>
       <c r="K33" t="n">
-        <v>73.6240854598214</v>
+        <v>73.62408545982139</v>
       </c>
       <c r="L33" t="n">
-        <v>190.9570045881956</v>
+        <v>190.9570045881955</v>
       </c>
       <c r="M33" t="n">
-        <v>372.633651192201</v>
+        <v>372.6336511922009</v>
       </c>
       <c r="N33" t="n">
-        <v>577.5386276029602</v>
+        <v>577.5386276029601</v>
       </c>
       <c r="O33" t="n">
-        <v>709.2395672219947</v>
+        <v>709.2395672219945</v>
       </c>
       <c r="P33" t="n">
-        <v>792.8646804800946</v>
+        <v>792.8646804800944</v>
       </c>
       <c r="Q33" t="n">
-        <v>792.8646804800946</v>
+        <v>792.8646804800944</v>
       </c>
       <c r="R33" t="n">
-        <v>656.7840736224405</v>
+        <v>792.8646804800944</v>
       </c>
       <c r="S33" t="n">
-        <v>463.2580217840523</v>
+        <v>792.8646804800944</v>
       </c>
       <c r="T33" t="n">
-        <v>462.5929074258451</v>
+        <v>792.1995661218873</v>
       </c>
       <c r="U33" t="n">
-        <v>439.4458275207709</v>
+        <v>552.5752534987674</v>
       </c>
       <c r="V33" t="n">
-        <v>412.8433421424507</v>
+        <v>525.9727681204472</v>
       </c>
       <c r="W33" t="n">
-        <v>359.9220055907876</v>
+        <v>473.0514315687842</v>
       </c>
       <c r="X33" t="n">
-        <v>356.8912439255296</v>
+        <v>470.0206699035263</v>
       </c>
       <c r="Y33" t="n">
-        <v>131.2505508608573</v>
+        <v>460.8572095568996</v>
       </c>
     </row>
     <row r="34">
@@ -6835,70 +6835,70 @@
         <v>35.660759443941</v>
       </c>
       <c r="C34" t="n">
-        <v>83.03748606864491</v>
+        <v>83.03748606864494</v>
       </c>
       <c r="D34" t="n">
-        <v>83.03748606864491</v>
+        <v>151.4759981073979</v>
       </c>
       <c r="E34" t="n">
-        <v>83.03748606864491</v>
+        <v>151.4759981073979</v>
       </c>
       <c r="F34" t="n">
-        <v>83.03748606864491</v>
+        <v>151.4759981073979</v>
       </c>
       <c r="G34" t="n">
-        <v>83.03748606864491</v>
+        <v>151.4759981073979</v>
       </c>
       <c r="H34" t="n">
-        <v>83.03748606864491</v>
+        <v>199.4791802162346</v>
       </c>
       <c r="I34" t="n">
-        <v>83.03748606864491</v>
+        <v>199.4791802162346</v>
       </c>
       <c r="J34" t="n">
-        <v>83.03748606864491</v>
+        <v>199.4791802162346</v>
       </c>
       <c r="K34" t="n">
-        <v>83.03748606864491</v>
+        <v>199.4791802162346</v>
       </c>
       <c r="L34" t="n">
-        <v>83.03748606864491</v>
+        <v>199.4791802162346</v>
       </c>
       <c r="M34" t="n">
-        <v>83.03748606864491</v>
+        <v>199.4791802162346</v>
       </c>
       <c r="N34" t="n">
-        <v>260.0540801966774</v>
+        <v>199.4791802162346</v>
       </c>
       <c r="O34" t="n">
-        <v>260.0540801966774</v>
+        <v>199.4791802162346</v>
       </c>
       <c r="P34" t="n">
-        <v>260.0540801966774</v>
+        <v>199.4791802162346</v>
       </c>
       <c r="Q34" t="n">
-        <v>260.0540801966774</v>
+        <v>249.2804059537984</v>
       </c>
       <c r="R34" t="n">
-        <v>260.0540801966774</v>
+        <v>260.0540801966771</v>
       </c>
       <c r="S34" t="n">
-        <v>238.7151064842376</v>
+        <v>238.7151064842374</v>
       </c>
       <c r="T34" t="n">
-        <v>229.1705629898358</v>
+        <v>229.1705629898356</v>
       </c>
       <c r="U34" t="n">
-        <v>154.0755159416535</v>
+        <v>154.0755159416534</v>
       </c>
       <c r="V34" t="n">
-        <v>122.9678848370225</v>
+        <v>122.9678848370224</v>
       </c>
       <c r="W34" t="n">
-        <v>46.20197908099205</v>
+        <v>46.201979080992</v>
       </c>
       <c r="X34" t="n">
-        <v>38.51814573010586</v>
+        <v>38.51814573010584</v>
       </c>
       <c r="Y34" t="n">
         <v>35.660759443941</v>
@@ -6932,37 +6932,37 @@
         <v>20.83686474960229</v>
       </c>
       <c r="I35" t="n">
-        <v>27.51198776868227</v>
+        <v>51.57576979998704</v>
       </c>
       <c r="J35" t="n">
-        <v>220.8367615674402</v>
+        <v>51.57576979998704</v>
       </c>
       <c r="K35" t="n">
-        <v>478.6929628437686</v>
+        <v>309.4319710763154</v>
       </c>
       <c r="L35" t="n">
-        <v>736.549164120097</v>
+        <v>356.1528135570755</v>
       </c>
       <c r="M35" t="n">
-        <v>817.4110632070443</v>
+        <v>607.5742624091304</v>
       </c>
       <c r="N35" t="n">
-        <v>892.7389563427367</v>
+        <v>865.4304636854588</v>
       </c>
       <c r="O35" t="n">
-        <v>926.9595910354045</v>
+        <v>899.6510983781266</v>
       </c>
       <c r="P35" t="n">
-        <v>926.9595910354045</v>
+        <v>899.6510983781266</v>
       </c>
       <c r="Q35" t="n">
-        <v>926.9595910354045</v>
+        <v>899.6510983781266</v>
       </c>
       <c r="R35" t="n">
-        <v>926.9595910354045</v>
+        <v>976.0569450232895</v>
       </c>
       <c r="S35" t="n">
-        <v>971.0563429962468</v>
+        <v>1020.153696984132</v>
       </c>
       <c r="T35" t="n">
         <v>1020.153696984132</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>72.16601900843807</v>
+        <v>318.6970282529894</v>
       </c>
       <c r="C36" t="n">
-        <v>72.16601900843807</v>
+        <v>129.2847539859532</v>
       </c>
       <c r="D36" t="n">
-        <v>20.83686474960229</v>
+        <v>129.2847539859532</v>
       </c>
       <c r="E36" t="n">
-        <v>20.83686474960229</v>
+        <v>129.2847539859532</v>
       </c>
       <c r="F36" t="n">
-        <v>20.83686474960229</v>
+        <v>129.2847539859532</v>
       </c>
       <c r="G36" t="n">
-        <v>20.83686474960229</v>
+        <v>129.2847539859532</v>
       </c>
       <c r="H36" t="n">
-        <v>20.83686474960229</v>
+        <v>129.2847539859532</v>
       </c>
       <c r="I36" t="n">
         <v>20.83686474960229</v>
@@ -7017,7 +7017,7 @@
         <v>20.83686474960229</v>
       </c>
       <c r="K36" t="n">
-        <v>58.80019076548269</v>
+        <v>58.80019076548268</v>
       </c>
       <c r="L36" t="n">
         <v>176.1331098938568</v>
@@ -7044,22 +7044,22 @@
         <v>778.0407857857558</v>
       </c>
       <c r="T36" t="n">
-        <v>560.898438709503</v>
+        <v>778.0407857857558</v>
       </c>
       <c r="U36" t="n">
-        <v>560.898438709503</v>
+        <v>778.0407857857558</v>
       </c>
       <c r="V36" t="n">
-        <v>560.898438709503</v>
+        <v>778.0407857857558</v>
       </c>
       <c r="W36" t="n">
-        <v>297.8067120731104</v>
+        <v>514.9490591493632</v>
       </c>
       <c r="X36" t="n">
-        <v>297.8067120731104</v>
+        <v>514.9490591493632</v>
       </c>
       <c r="Y36" t="n">
-        <v>72.16601900843807</v>
+        <v>318.6970282529894</v>
       </c>
     </row>
     <row r="37">
@@ -7096,31 +7096,31 @@
         <v>20.83686474960229</v>
       </c>
       <c r="K37" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="L37" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="M37" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="N37" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="O37" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="P37" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="R37" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="S37" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="T37" t="n">
         <v>56.03780166411086</v>
@@ -7169,40 +7169,40 @@
         <v>20.83686474960229</v>
       </c>
       <c r="I38" t="n">
-        <v>20.83686474960229</v>
+        <v>51.57576979998704</v>
       </c>
       <c r="J38" t="n">
-        <v>214.1616385483603</v>
+        <v>244.900543598745</v>
       </c>
       <c r="K38" t="n">
-        <v>214.1616385483603</v>
+        <v>244.900543598745</v>
       </c>
       <c r="L38" t="n">
-        <v>472.0178398246886</v>
+        <v>291.6213860795052</v>
       </c>
       <c r="M38" t="n">
-        <v>675.3649060999331</v>
+        <v>549.4775873558335</v>
       </c>
       <c r="N38" t="n">
-        <v>750.6927992356256</v>
+        <v>807.3337886321619</v>
       </c>
       <c r="O38" t="n">
-        <v>784.9134339282933</v>
+        <v>841.5544233248297</v>
       </c>
       <c r="P38" t="n">
-        <v>784.9134339282933</v>
+        <v>850.5537443902416</v>
       </c>
       <c r="Q38" t="n">
-        <v>965.4373908349517</v>
+        <v>850.5537443902416</v>
       </c>
       <c r="R38" t="n">
-        <v>1041.843237480115</v>
+        <v>926.9595910354045</v>
       </c>
       <c r="S38" t="n">
-        <v>1041.843237480115</v>
+        <v>971.0563429962468</v>
       </c>
       <c r="T38" t="n">
-        <v>1041.843237480115</v>
+        <v>1020.153696984132</v>
       </c>
       <c r="U38" t="n">
         <v>1041.843237480115</v>
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>234.2698036423608</v>
+        <v>355.1801848671561</v>
       </c>
       <c r="C39" t="n">
-        <v>234.2698036423608</v>
+        <v>355.1801848671561</v>
       </c>
       <c r="D39" t="n">
-        <v>234.2698036423608</v>
+        <v>194.4000686281878</v>
       </c>
       <c r="E39" t="n">
-        <v>234.2698036423608</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="F39" t="n">
-        <v>73.8420873596049</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="G39" t="n">
-        <v>73.8420873596049</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="H39" t="n">
-        <v>73.8420873596049</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I39" t="n">
-        <v>73.8420873596049</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="J39" t="n">
         <v>20.83686474960229</v>
       </c>
       <c r="K39" t="n">
-        <v>58.80019076548269</v>
+        <v>58.80019076548268</v>
       </c>
       <c r="L39" t="n">
         <v>176.1331098938568</v>
@@ -7272,31 +7272,31 @@
         <v>778.0407857857558</v>
       </c>
       <c r="Q39" t="n">
-        <v>778.0407857857558</v>
+        <v>771.1019414684215</v>
       </c>
       <c r="R39" t="n">
-        <v>778.0407857857558</v>
+        <v>771.1019414684215</v>
       </c>
       <c r="S39" t="n">
-        <v>778.0407857857558</v>
+        <v>771.1019414684215</v>
       </c>
       <c r="T39" t="n">
-        <v>778.0407857857558</v>
+        <v>771.1019414684215</v>
       </c>
       <c r="U39" t="n">
-        <v>778.0407857857558</v>
+        <v>618.2719115035486</v>
       </c>
       <c r="V39" t="n">
-        <v>534.9610676893899</v>
+        <v>618.2719115035486</v>
       </c>
       <c r="W39" t="n">
-        <v>534.9610676893899</v>
+        <v>355.1801848671561</v>
       </c>
       <c r="X39" t="n">
-        <v>534.9610676893899</v>
+        <v>355.1801848671561</v>
       </c>
       <c r="Y39" t="n">
-        <v>412.8056565692959</v>
+        <v>355.1801848671561</v>
       </c>
     </row>
     <row r="40">
@@ -7315,55 +7315,55 @@
         <v>20.83686474960229</v>
       </c>
       <c r="E40" t="n">
+        <v>37.60190385293248</v>
+      </c>
+      <c r="F40" t="n">
+        <v>37.60190385293248</v>
+      </c>
+      <c r="G40" t="n">
+        <v>37.60190385293248</v>
+      </c>
+      <c r="H40" t="n">
+        <v>37.60190385293248</v>
+      </c>
+      <c r="I40" t="n">
+        <v>37.60190385293248</v>
+      </c>
+      <c r="J40" t="n">
+        <v>37.60190385293248</v>
+      </c>
+      <c r="K40" t="n">
+        <v>37.60190385293248</v>
+      </c>
+      <c r="L40" t="n">
+        <v>37.60190385293248</v>
+      </c>
+      <c r="M40" t="n">
+        <v>37.60190385293248</v>
+      </c>
+      <c r="N40" t="n">
+        <v>37.60190385293248</v>
+      </c>
+      <c r="O40" t="n">
+        <v>37.60190385293248</v>
+      </c>
+      <c r="P40" t="n">
+        <v>37.60190385293248</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>37.60190385293248</v>
+      </c>
+      <c r="R40" t="n">
+        <v>37.60190385293248</v>
+      </c>
+      <c r="S40" t="n">
+        <v>37.60190385293248</v>
+      </c>
+      <c r="T40" t="n">
+        <v>37.60190385293248</v>
+      </c>
+      <c r="U40" t="n">
         <v>20.83686474960229</v>
-      </c>
-      <c r="F40" t="n">
-        <v>20.83686474960229</v>
-      </c>
-      <c r="G40" t="n">
-        <v>20.83686474960229</v>
-      </c>
-      <c r="H40" t="n">
-        <v>20.83686474960229</v>
-      </c>
-      <c r="I40" t="n">
-        <v>20.83686474960229</v>
-      </c>
-      <c r="J40" t="n">
-        <v>20.83686474960229</v>
-      </c>
-      <c r="K40" t="n">
-        <v>20.83686474960229</v>
-      </c>
-      <c r="L40" t="n">
-        <v>20.83686474960229</v>
-      </c>
-      <c r="M40" t="n">
-        <v>20.83686474960229</v>
-      </c>
-      <c r="N40" t="n">
-        <v>20.83686474960229</v>
-      </c>
-      <c r="O40" t="n">
-        <v>20.83686474960229</v>
-      </c>
-      <c r="P40" t="n">
-        <v>20.83686474960229</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>56.03780166411086</v>
-      </c>
-      <c r="R40" t="n">
-        <v>56.03780166411086</v>
-      </c>
-      <c r="S40" t="n">
-        <v>56.03780166411086</v>
-      </c>
-      <c r="T40" t="n">
-        <v>56.03780166411086</v>
-      </c>
-      <c r="U40" t="n">
-        <v>39.27276256078068</v>
       </c>
       <c r="V40" t="n">
         <v>39.27276256078068</v>
@@ -7409,34 +7409,34 @@
         <v>28.06597548400537</v>
       </c>
       <c r="J41" t="n">
-        <v>190.6518442323786</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="K41" t="n">
-        <v>190.6518442323786</v>
+        <v>260.0057267824887</v>
       </c>
       <c r="L41" t="n">
-        <v>475.9723582364601</v>
+        <v>306.7265692632488</v>
       </c>
       <c r="M41" t="n">
-        <v>795.4339288467287</v>
+        <v>626.1881398735175</v>
       </c>
       <c r="N41" t="n">
-        <v>1109.361493505742</v>
+        <v>940.1157045325311</v>
       </c>
       <c r="O41" t="n">
-        <v>1382.181799721732</v>
+        <v>1212.93601074852</v>
       </c>
       <c r="P41" t="n">
-        <v>1382.181799721732</v>
+        <v>1212.93601074852</v>
       </c>
       <c r="Q41" t="n">
-        <v>1403.298774200268</v>
+        <v>1325.915536757532</v>
       </c>
       <c r="R41" t="n">
-        <v>1403.298774200268</v>
+        <v>1371.582478352311</v>
       </c>
       <c r="S41" t="n">
-        <v>1403.298774200268</v>
+        <v>1384.940325262768</v>
       </c>
       <c r="T41" t="n">
         <v>1403.298774200268</v>
@@ -7464,10 +7464,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>486.7062552263608</v>
+        <v>325.9261389873925</v>
       </c>
       <c r="C42" t="n">
-        <v>297.2939809593245</v>
+        <v>136.5138647203562</v>
       </c>
       <c r="D42" t="n">
         <v>136.5138647203562</v>
@@ -7497,7 +7497,7 @@
         <v>183.3622206282599</v>
       </c>
       <c r="M42" t="n">
-        <v>365.0388672322654</v>
+        <v>365.0388672322653</v>
       </c>
       <c r="N42" t="n">
         <v>569.9438436430246</v>
@@ -7515,25 +7515,25 @@
         <v>785.2698965201589</v>
       </c>
       <c r="S42" t="n">
-        <v>752.2849257904256</v>
+        <v>785.2698965201589</v>
       </c>
       <c r="T42" t="n">
-        <v>752.2849257904256</v>
+        <v>785.2698965201589</v>
       </c>
       <c r="U42" t="n">
-        <v>512.6606131673058</v>
+        <v>785.2698965201589</v>
       </c>
       <c r="V42" t="n">
-        <v>512.6606131673058</v>
+        <v>785.2698965201589</v>
       </c>
       <c r="W42" t="n">
-        <v>486.7062552263608</v>
+        <v>551.5668320520649</v>
       </c>
       <c r="X42" t="n">
-        <v>486.7062552263608</v>
+        <v>551.5668320520649</v>
       </c>
       <c r="Y42" t="n">
-        <v>486.7062552263608</v>
+        <v>325.9261389873925</v>
       </c>
     </row>
     <row r="43">
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>90.82489554900823</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="C43" t="n">
-        <v>90.82489554900823</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="D43" t="n">
-        <v>90.82489554900823</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="E43" t="n">
-        <v>130.133623560695</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="F43" t="n">
-        <v>130.133623560695</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="G43" t="n">
-        <v>130.133623560695</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="H43" t="n">
-        <v>130.133623560695</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="I43" t="n">
-        <v>130.133623560695</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="J43" t="n">
-        <v>130.133623560695</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="K43" t="n">
-        <v>130.133623560695</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="L43" t="n">
-        <v>130.133623560695</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="M43" t="n">
-        <v>130.133623560695</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="N43" t="n">
-        <v>130.133623560695</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="O43" t="n">
-        <v>130.133623560695</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="P43" t="n">
-        <v>130.133623560695</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="Q43" t="n">
         <v>130.133623560695</v>
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.426354275317</v>
+        <v>818.4263542753175</v>
       </c>
       <c r="C44" t="n">
-        <v>708.1276389564252</v>
+        <v>708.1276389564257</v>
       </c>
       <c r="D44" t="n">
-        <v>610.3878506465755</v>
+        <v>610.3878506465758</v>
       </c>
       <c r="E44" t="n">
-        <v>478.6008376706559</v>
+        <v>478.600837670656</v>
       </c>
       <c r="F44" t="n">
         <v>314.7730796660726</v>
@@ -7652,19 +7652,19 @@
         <v>422.5915955308619</v>
       </c>
       <c r="L44" t="n">
-        <v>469.3124380116221</v>
+        <v>707.9121095349433</v>
       </c>
       <c r="M44" t="n">
-        <v>788.7740086218907</v>
+        <v>788.7740086218906</v>
       </c>
       <c r="N44" t="n">
-        <v>864.1019017575832</v>
+        <v>1102.701573280904</v>
       </c>
       <c r="O44" t="n">
-        <v>952.4718660055154</v>
+        <v>1325.915536757532</v>
       </c>
       <c r="P44" t="n">
-        <v>1176.130484901259</v>
+        <v>1325.915536757532</v>
       </c>
       <c r="Q44" t="n">
         <v>1325.915536757532</v>
@@ -7682,7 +7682,7 @@
         <v>1394.065670889992</v>
       </c>
       <c r="V44" t="n">
-        <v>1313.388888674157</v>
+        <v>1313.388888674158</v>
       </c>
       <c r="W44" t="n">
         <v>1215.523540582955</v>
@@ -7691,7 +7691,7 @@
         <v>1095.550868785753</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.8480423181021</v>
+        <v>952.8480423181027</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>241.8513143329762</v>
+        <v>955.3643520036244</v>
       </c>
       <c r="C45" t="n">
-        <v>241.8513143329762</v>
+        <v>955.3643520036244</v>
       </c>
       <c r="D45" t="n">
-        <v>81.07119809400798</v>
+        <v>794.5842357646561</v>
       </c>
       <c r="E45" t="n">
-        <v>81.07119809400798</v>
+        <v>794.5842357646561</v>
       </c>
       <c r="F45" t="n">
-        <v>81.07119809400798</v>
+        <v>754.5427424004657</v>
       </c>
       <c r="G45" t="n">
-        <v>81.07119809400798</v>
+        <v>754.5427424004657</v>
       </c>
       <c r="H45" t="n">
-        <v>81.07119809400798</v>
+        <v>754.5427424004657</v>
       </c>
       <c r="I45" t="n">
-        <v>81.07119809400798</v>
+        <v>646.0948531641149</v>
       </c>
       <c r="J45" t="n">
-        <v>28.06597548400537</v>
+        <v>646.0948531641149</v>
       </c>
       <c r="K45" t="n">
-        <v>66.02930149988576</v>
+        <v>684.0581791799952</v>
       </c>
       <c r="L45" t="n">
-        <v>183.3622206282599</v>
+        <v>801.3910983083694</v>
       </c>
       <c r="M45" t="n">
-        <v>365.0388672322654</v>
+        <v>983.0677449123748</v>
       </c>
       <c r="N45" t="n">
-        <v>569.9438436430246</v>
+        <v>1187.972721323134</v>
       </c>
       <c r="O45" t="n">
-        <v>701.644783262059</v>
+        <v>1319.673660942168</v>
       </c>
       <c r="P45" t="n">
-        <v>785.2698965201589</v>
+        <v>1403.298774200268</v>
       </c>
       <c r="Q45" t="n">
-        <v>785.2698965201589</v>
+        <v>1403.298774200268</v>
       </c>
       <c r="R45" t="n">
-        <v>785.2698965201589</v>
+        <v>1403.298774200268</v>
       </c>
       <c r="S45" t="n">
-        <v>785.2698965201589</v>
+        <v>1403.298774200268</v>
       </c>
       <c r="T45" t="n">
-        <v>568.1275494439061</v>
+        <v>1403.298774200268</v>
       </c>
       <c r="U45" t="n">
-        <v>568.1275494439061</v>
+        <v>1403.298774200268</v>
       </c>
       <c r="V45" t="n">
-        <v>568.1275494439061</v>
+        <v>1403.298774200268</v>
       </c>
       <c r="W45" t="n">
-        <v>298.7289801741974</v>
+        <v>1133.90020493056</v>
       </c>
       <c r="X45" t="n">
-        <v>241.8513143329762</v>
+        <v>1133.90020493056</v>
       </c>
       <c r="Y45" t="n">
-        <v>241.8513143329762</v>
+        <v>1133.90020493056</v>
       </c>
     </row>
     <row r="46">
@@ -7795,52 +7795,52 @@
         <v>28.06597548400537</v>
       </c>
       <c r="G46" t="n">
-        <v>99.6518798294457</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="H46" t="n">
-        <v>99.6518798294457</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="I46" t="n">
-        <v>99.6518798294457</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="J46" t="n">
-        <v>99.6518798294457</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="K46" t="n">
-        <v>99.6518798294457</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="L46" t="n">
-        <v>130.133623560695</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="M46" t="n">
-        <v>130.133623560695</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="N46" t="n">
-        <v>130.133623560695</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="O46" t="n">
-        <v>130.133623560695</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="P46" t="n">
-        <v>130.133623560695</v>
+        <v>107.5418873023911</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.133623560695</v>
+        <v>107.5418873023911</v>
       </c>
       <c r="R46" t="n">
-        <v>130.133623560695</v>
+        <v>107.5418873023911</v>
       </c>
       <c r="S46" t="n">
-        <v>130.133623560695</v>
+        <v>113.0578949031936</v>
       </c>
       <c r="T46" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="U46" t="n">
-        <v>82.00555512323078</v>
+        <v>82.00555512323083</v>
       </c>
       <c r="V46" t="n">
-        <v>77.86490262931778</v>
+        <v>77.86490262931781</v>
       </c>
       <c r="W46" t="n">
         <v>28.06597548400537</v>
@@ -8532,19 +8532,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>168.166555548718</v>
+        <v>171.2365425770137</v>
       </c>
       <c r="L9" t="n">
         <v>169.0363433314465</v>
       </c>
       <c r="M9" t="n">
-        <v>176.6027710248758</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N9" t="n">
         <v>163.4361383816801</v>
       </c>
       <c r="O9" t="n">
-        <v>177.037405250518</v>
+        <v>177.1666678622357</v>
       </c>
       <c r="P9" t="n">
         <v>166.6480266854964</v>
@@ -8778,7 +8778,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>292.1370682466385</v>
+        <v>292.1370682466384</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
@@ -9015,7 +9015,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
-        <v>292.1370682466383</v>
+        <v>292.1370682466384</v>
       </c>
       <c r="O15" t="n">
         <v>255.2227828913207</v>
@@ -9486,7 +9486,7 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M21" t="n">
-        <v>301.7768813100001</v>
+        <v>301.77688131</v>
       </c>
       <c r="N21" t="n">
         <v>292.1370682466383</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>195.9389762247656</v>
+        <v>7.441042905518316</v>
       </c>
       <c r="C11" t="n">
-        <v>172.057233228111</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>159.6238954891595</v>
       </c>
       <c r="E11" t="n">
-        <v>109.3333734458046</v>
+        <v>193.3306479085684</v>
       </c>
       <c r="F11" t="n">
-        <v>225.0509854869457</v>
+        <v>36.55305216769847</v>
       </c>
       <c r="G11" t="n">
-        <v>52.19197549033353</v>
+        <v>240.6899088095808</v>
       </c>
       <c r="H11" t="n">
         <v>168.8731344554828</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.86150506240827</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>16.73328122929905</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>48.53350078828979</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.31761724675148</v>
       </c>
       <c r="U11" t="n">
         <v>72.00227733958198</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>142.7315194560842</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>159.7481996726991</v>
       </c>
       <c r="X11" t="n">
-        <v>181.6344501416384</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>204.1373032653821</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>195.9389762247656</v>
+        <v>195.9389762247655</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>94.76381212939899</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>159.6238954891595</v>
       </c>
       <c r="E14" t="n">
-        <v>193.3306479085684</v>
+        <v>4.832714589321085</v>
       </c>
       <c r="F14" t="n">
-        <v>225.0509854869457</v>
+        <v>36.55305216769841</v>
       </c>
       <c r="G14" t="n">
-        <v>240.6899088095808</v>
+        <v>52.19197549033348</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>168.8731344554828</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.86150506240821</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>49.36873040538035</v>
       </c>
       <c r="T14" t="n">
-        <v>44.31761724675148</v>
+        <v>44.31761724675141</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>159.7481996726991</v>
       </c>
       <c r="X14" t="n">
-        <v>181.6344501416384</v>
+        <v>181.6344501416383</v>
       </c>
       <c r="Y14" t="n">
-        <v>174.1345808494705</v>
+        <v>204.1373032653821</v>
       </c>
     </row>
     <row r="15">
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-6.071703758979893e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>418917.6977088185</v>
+        <v>418917.6977088184</v>
       </c>
       <c r="C2" t="n">
-        <v>418917.6977088184</v>
+        <v>418917.6977088181</v>
       </c>
       <c r="D2" t="n">
         <v>419159.6249665961</v>
@@ -26323,37 +26323,37 @@
         <v>360874.3286558394</v>
       </c>
       <c r="F2" t="n">
-        <v>360874.3286558393</v>
+        <v>360874.3286558395</v>
       </c>
       <c r="G2" t="n">
-        <v>419766.3107078043</v>
+        <v>419766.3107078046</v>
       </c>
       <c r="H2" t="n">
-        <v>419766.3107078044</v>
+        <v>419766.3107078046</v>
       </c>
       <c r="I2" t="n">
         <v>419766.3107078045</v>
       </c>
       <c r="J2" t="n">
-        <v>419766.3107078049</v>
+        <v>419766.3107078046</v>
       </c>
       <c r="K2" t="n">
-        <v>419766.3107078047</v>
+        <v>419766.3107078046</v>
       </c>
       <c r="L2" t="n">
-        <v>419766.310707804</v>
+        <v>419766.3107078042</v>
       </c>
       <c r="M2" t="n">
         <v>419766.3107078045</v>
       </c>
       <c r="N2" t="n">
-        <v>419766.3107078046</v>
+        <v>419766.3107078045</v>
       </c>
       <c r="O2" t="n">
         <v>419766.3107078046</v>
       </c>
       <c r="P2" t="n">
-        <v>419766.3107078046</v>
+        <v>419766.3107078045</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>279126.1151787142</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>95439.52541913331</v>
+        <v>95439.52541913326</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>143496.2830068793</v>
+        <v>143496.2830068792</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>96101.69331262473</v>
+        <v>96101.6933126247</v>
       </c>
       <c r="M3" t="n">
-        <v>46197.36629232282</v>
+        <v>46197.3662923228</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>313625.6347290153</v>
       </c>
       <c r="F4" t="n">
-        <v>313625.6347290153</v>
+        <v>313625.6347290154</v>
       </c>
       <c r="G4" t="n">
         <v>384233.5027722372</v>
@@ -26439,7 +26439,7 @@
         <v>384233.5027722372</v>
       </c>
       <c r="J4" t="n">
-        <v>385080.4565238519</v>
+        <v>385080.4565238518</v>
       </c>
       <c r="K4" t="n">
         <v>385080.4565238518</v>
@@ -26454,10 +26454,10 @@
         <v>384255.7291831548</v>
       </c>
       <c r="O4" t="n">
-        <v>384642.7918468724</v>
+        <v>384642.7918468725</v>
       </c>
       <c r="P4" t="n">
-        <v>384642.7918468724</v>
+        <v>384642.7918468725</v>
       </c>
     </row>
     <row r="5">
@@ -26491,10 +26491,10 @@
         <v>38672.33876582418</v>
       </c>
       <c r="J5" t="n">
-        <v>47449.67722016352</v>
+        <v>47449.67722016351</v>
       </c>
       <c r="K5" t="n">
-        <v>47449.67722016352</v>
+        <v>47449.67722016351</v>
       </c>
       <c r="L5" t="n">
         <v>47324.7475828481</v>
@@ -26509,7 +26509,7 @@
         <v>43797.12782887324</v>
       </c>
       <c r="P5" t="n">
-        <v>43797.12782887324</v>
+        <v>43797.12782887323</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-39655.5346852568</v>
+        <v>-39660.0010694621</v>
       </c>
       <c r="C6" t="n">
-        <v>-39655.53468525691</v>
+        <v>-39660.00106946233</v>
       </c>
       <c r="D6" t="n">
-        <v>-40518.21366033056</v>
+        <v>-40521.40674317902</v>
       </c>
       <c r="E6" t="n">
-        <v>-260520.3781896379</v>
+        <v>-260830.3359899113</v>
       </c>
       <c r="F6" t="n">
-        <v>18605.73698907618</v>
+        <v>18295.77918880273</v>
       </c>
       <c r="G6" t="n">
-        <v>-98579.05624939044</v>
+        <v>-98579.05624939009</v>
       </c>
       <c r="H6" t="n">
-        <v>-3139.530830256961</v>
+        <v>-3139.530830256845</v>
       </c>
       <c r="I6" t="n">
-        <v>-3139.530830256961</v>
+        <v>-3139.530830256903</v>
       </c>
       <c r="J6" t="n">
-        <v>-156260.1060430898</v>
+        <v>-156260.1060430899</v>
       </c>
       <c r="K6" t="n">
-        <v>-12763.82303621061</v>
+        <v>-12763.82303621066</v>
       </c>
       <c r="L6" t="n">
-        <v>-108725.796744142</v>
+        <v>-108725.7967441419</v>
       </c>
       <c r="M6" t="n">
-        <v>-51600.08036636036</v>
+        <v>-51600.08036636042</v>
       </c>
       <c r="N6" t="n">
-        <v>-5402.714074037489</v>
+        <v>-5402.714074037605</v>
       </c>
       <c r="O6" t="n">
-        <v>-80928.52382718481</v>
+        <v>-80928.52382718486</v>
       </c>
       <c r="P6" t="n">
-        <v>-8673.608967941087</v>
+        <v>-8673.608967941254</v>
       </c>
     </row>
   </sheetData>
@@ -26811,13 +26811,13 @@
         <v>188.4979333192472</v>
       </c>
       <c r="J4" t="n">
-        <v>448.9587426892761</v>
+        <v>448.9587426892759</v>
       </c>
       <c r="K4" t="n">
         <v>448.9587426892759</v>
       </c>
       <c r="L4" t="n">
-        <v>445.7594930492625</v>
+        <v>445.7594930492624</v>
       </c>
       <c r="M4" t="n">
         <v>260.4608093700286</v>
@@ -26917,7 +26917,7 @@
         <v>178.1482641530678</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
         <v>119.2994067739166</v>
@@ -26938,7 +26938,7 @@
         <v>120.1271166407809</v>
       </c>
       <c r="M2" t="n">
-        <v>57.74670786540352</v>
+        <v>57.74670786540349</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4608093700289</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>178.1482641530678</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
         <v>119.2994067739166</v>
@@ -27898,7 +27898,7 @@
         <v>133.6328276992101</v>
       </c>
       <c r="R8" t="n">
-        <v>220.4301160555486</v>
+        <v>220.5600315087396</v>
       </c>
       <c r="S8" t="n">
         <v>236.785106778059</v>
@@ -27916,7 +27916,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X8" t="n">
-        <v>359.9126297478971</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y8" t="n">
         <v>382.2855674184499</v>
@@ -27941,10 +27941,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F9" t="n">
-        <v>158.8234391199283</v>
+        <v>155.6241894799149</v>
       </c>
       <c r="G9" t="n">
-        <v>145.7629687550784</v>
+        <v>148.9622183950918</v>
       </c>
       <c r="H9" t="n">
         <v>127.8372169228968</v>
@@ -27953,7 +27953,7 @@
         <v>114.855819447717</v>
       </c>
       <c r="J9" t="n">
-        <v>73.03491363274843</v>
+        <v>69.83566399273495</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27974,19 +27974,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>34.64768193211606</v>
+        <v>31.82978284919219</v>
       </c>
       <c r="R9" t="n">
         <v>148.2309527983001</v>
       </c>
       <c r="S9" t="n">
-        <v>192.4336248079265</v>
+        <v>195.63287444794</v>
       </c>
       <c r="T9" t="n">
         <v>212.6488107764739</v>
       </c>
       <c r="U9" t="n">
-        <v>234.4244871192585</v>
+        <v>237.2423862021824</v>
       </c>
       <c r="V9" t="n">
         <v>240.6489209154022</v>
@@ -28114,25 +28114,25 @@
         <v>178.1482641530678</v>
       </c>
       <c r="K11" t="n">
-        <v>178.1482641530678</v>
+        <v>6.727192146300936</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>141.3051631366612</v>
       </c>
       <c r="M11" t="n">
         <v>106.8192473728358</v>
       </c>
       <c r="N11" t="n">
-        <v>112.4091523741034</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>14.83300347739749</v>
+        <v>68.92153760596071</v>
       </c>
       <c r="P11" t="n">
-        <v>15.09197235108871</v>
+        <v>15.09197235108872</v>
       </c>
       <c r="Q11" t="n">
-        <v>89.71173703742193</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="R11" t="n">
         <v>178.1482641530678</v>
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>178.1482641530678</v>
@@ -28175,13 +28175,13 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>86.48383581549828</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>125.7355245857741</v>
@@ -28211,7 +28211,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.869455874161016</v>
+        <v>6.869455874161019</v>
       </c>
       <c r="R12" t="n">
         <v>134.7198007890776</v>
@@ -28232,10 +28232,10 @@
         <v>178.1482641530678</v>
       </c>
       <c r="X12" t="n">
+        <v>126.2931111881426</v>
+      </c>
+      <c r="Y12" t="n">
         <v>178.1482641530678</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>34.88635281477838</v>
       </c>
     </row>
     <row r="13">
@@ -28245,49 +28245,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>178.1482641530678</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
-        <v>178.1482641530678</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>141.676141212225</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="F13" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
+        <v>168.7007749271525</v>
+      </c>
+      <c r="H13" t="n">
+        <v>165.8243976546666</v>
+      </c>
+      <c r="I13" t="n">
         <v>178.1482641530678</v>
       </c>
-      <c r="H13" t="n">
+      <c r="J13" t="n">
+        <v>120.2396075829089</v>
+      </c>
+      <c r="K13" t="n">
+        <v>67.02998013918996</v>
+      </c>
+      <c r="L13" t="n">
         <v>178.1482641530678</v>
       </c>
-      <c r="I13" t="n">
-        <v>164.852968067965</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="M13" t="n">
+        <v>37.89978069779833</v>
+      </c>
+      <c r="N13" t="n">
         <v>178.1482641530678</v>
-      </c>
-      <c r="K13" t="n">
-        <v>178.1482641530678</v>
-      </c>
-      <c r="L13" t="n">
-        <v>32.15181624817886</v>
-      </c>
-      <c r="M13" t="n">
-        <v>178.1482641530678</v>
-      </c>
-      <c r="N13" t="n">
-        <v>16.52015736928132</v>
       </c>
       <c r="O13" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="P13" t="n">
-        <v>72.60136618205203</v>
+        <v>58.47859890024885</v>
       </c>
       <c r="Q13" t="n">
         <v>127.2169859636892</v>
@@ -28348,13 +28348,13 @@
         <v>178.1482641530678</v>
       </c>
       <c r="J14" t="n">
-        <v>178.1482641530678</v>
+        <v>76.78161896459403</v>
       </c>
       <c r="K14" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="L14" t="n">
-        <v>121.6522508502333</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -28363,13 +28363,13 @@
         <v>112.4091523741034</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>59.96260423672787</v>
       </c>
       <c r="P14" t="n">
-        <v>15.09197235108871</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Q14" t="n">
-        <v>89.71173703742193</v>
+        <v>89.71173703742194</v>
       </c>
       <c r="R14" t="n">
         <v>178.1482641530678</v>
@@ -28409,7 +28409,7 @@
         <v>178.1482641530678</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
@@ -28418,10 +28418,10 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I15" t="n">
         <v>107.3634103439873</v>
@@ -28448,22 +28448,22 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.869455874161016</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>134.7198007890776</v>
       </c>
       <c r="S15" t="n">
-        <v>178.1482641530678</v>
+        <v>3.092858000757076</v>
       </c>
       <c r="T15" t="n">
-        <v>178.1482641530678</v>
+        <v>131.4674788169483</v>
       </c>
       <c r="U15" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="V15" t="n">
-        <v>85.70585197820279</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="W15" t="n">
         <v>178.1482641530678</v>
@@ -28482,31 +28482,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>177.6169206649681</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="C16" t="n">
-        <v>166.4571809719723</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="E16" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="G16" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="H16" t="n">
-        <v>165.8243976546666</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="I16" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="J16" t="n">
-        <v>120.2396075829089</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="K16" t="n">
         <v>67.02998013918996</v>
@@ -28515,10 +28515,10 @@
         <v>178.1482641530678</v>
       </c>
       <c r="M16" t="n">
-        <v>118.1903934377955</v>
+        <v>25.21686539889343</v>
       </c>
       <c r="N16" t="n">
-        <v>178.1482641530678</v>
+        <v>116.4798466172353</v>
       </c>
       <c r="O16" t="n">
         <v>37.47888399777678</v>
@@ -28582,31 +28582,31 @@
         <v>297.4476709269844</v>
       </c>
       <c r="I17" t="n">
-        <v>241.009769215476</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="J17" t="n">
-        <v>265.2795522838413</v>
+        <v>76.78161896459403</v>
       </c>
       <c r="K17" t="n">
-        <v>6.727192146300929</v>
+        <v>6.727192146300936</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>141.3051631366612</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>27.28712823646524</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>84.26101106529015</v>
       </c>
       <c r="P17" t="n">
-        <v>203.5899056703359</v>
+        <v>15.09197235108872</v>
       </c>
       <c r="Q17" t="n">
-        <v>89.71173703742193</v>
+        <v>89.71173703742194</v>
       </c>
       <c r="R17" t="n">
         <v>297.4476709269844</v>
@@ -28615,10 +28615,10 @@
         <v>227.5169945584482</v>
       </c>
       <c r="T17" t="n">
-        <v>222.4658813998192</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="U17" t="n">
-        <v>250.1505414926498</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="V17" t="n">
         <v>297.4476709269844</v>
@@ -28640,31 +28640,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>79.12553115013932</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I18" t="n">
-        <v>107.3634103439873</v>
+        <v>87.10746872847422</v>
       </c>
       <c r="J18" t="n">
-        <v>52.47517038390258</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,10 +28685,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.869455874161016</v>
+        <v>6.869455874161019</v>
       </c>
       <c r="R18" t="n">
-        <v>134.7198007890776</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>191.5907913200043</v>
@@ -28703,13 +28703,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>78.20665025776435</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>28.81498112022336</v>
       </c>
       <c r="Y18" t="n">
-        <v>34.88635281477838</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -28755,7 +28755,7 @@
         <v>25.21686539889343</v>
       </c>
       <c r="N19" t="n">
-        <v>16.52015736928132</v>
+        <v>16.52015736928133</v>
       </c>
       <c r="O19" t="n">
         <v>37.47888399777678</v>
@@ -28819,16 +28819,16 @@
         <v>297.4476709269844</v>
       </c>
       <c r="I20" t="n">
-        <v>241.009769215476</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="J20" t="n">
         <v>76.78161896459403</v>
       </c>
       <c r="K20" t="n">
-        <v>6.727192146300929</v>
+        <v>6.727192146300936</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>141.3051631366612</v>
       </c>
       <c r="M20" t="n">
         <v>106.8192473728358</v>
@@ -28837,25 +28837,25 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>153.9316356498858</v>
       </c>
       <c r="P20" t="n">
-        <v>203.589905670336</v>
+        <v>15.09197235108872</v>
       </c>
       <c r="Q20" t="n">
-        <v>89.71173703742193</v>
+        <v>89.71173703742194</v>
       </c>
       <c r="R20" t="n">
-        <v>261.5010192141596</v>
+        <v>194.8815453823668</v>
       </c>
       <c r="S20" t="n">
+        <v>227.5169945584482</v>
+      </c>
+      <c r="T20" t="n">
+        <v>223.5239245141705</v>
+      </c>
+      <c r="U20" t="n">
         <v>297.4476709269844</v>
-      </c>
-      <c r="T20" t="n">
-        <v>297.4476709269844</v>
-      </c>
-      <c r="U20" t="n">
-        <v>250.1505414926498</v>
       </c>
       <c r="V20" t="n">
         <v>297.4476709269844</v>
@@ -28883,7 +28883,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
@@ -28892,16 +28892,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H21" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>90.07903515102122</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>52.47517038390258</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,7 +28922,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.869455874161016</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>134.7198007890776</v>
@@ -28931,22 +28931,22 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T21" t="n">
-        <v>214.9709236054903</v>
+        <v>26.47299028624303</v>
       </c>
       <c r="U21" t="n">
         <v>237.2280694968886</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>149.2399508737184</v>
       </c>
       <c r="W21" t="n">
-        <v>78.20665025776435</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>28.81498112022336</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>34.88635281477838</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -28992,7 +28992,7 @@
         <v>25.21686539889343</v>
       </c>
       <c r="N22" t="n">
-        <v>16.52015736928132</v>
+        <v>16.52015736928133</v>
       </c>
       <c r="O22" t="n">
         <v>37.47888399777678</v>
@@ -29068,22 +29068,22 @@
         <v>141.3051631366612</v>
       </c>
       <c r="M23" t="n">
-        <v>74.47989841905121</v>
+        <v>106.8192473728358</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>22.92964715649825</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>15.09197235108871</v>
+        <v>15.09197235108872</v>
       </c>
       <c r="Q23" t="n">
-        <v>89.71173703742193</v>
+        <v>89.71173703742194</v>
       </c>
       <c r="R23" t="n">
-        <v>297.4476709269844</v>
+        <v>194.8815453823668</v>
       </c>
       <c r="S23" t="n">
         <v>227.5169945584482</v>
@@ -29092,7 +29092,7 @@
         <v>222.4658813998192</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1505414926498</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="V23" t="n">
         <v>297.4476709269844</v>
@@ -29126,19 +29126,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>118.5299840381095</v>
+        <v>45.26962983623807</v>
       </c>
       <c r="G24" t="n">
         <v>148.7446044746268</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I24" t="n">
         <v>107.3634103439873</v>
       </c>
       <c r="J24" t="n">
-        <v>52.47517038390258</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,16 +29159,16 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.869455874161016</v>
+        <v>6.869455874161019</v>
       </c>
       <c r="R24" t="n">
         <v>134.7198007890776</v>
       </c>
       <c r="S24" t="n">
-        <v>191.5907913200043</v>
+        <v>3.092858000757097</v>
       </c>
       <c r="T24" t="n">
-        <v>26.47299028624304</v>
+        <v>26.47299028624307</v>
       </c>
       <c r="U24" t="n">
         <v>237.2280694968886</v>
@@ -29177,13 +29177,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>78.20665025776435</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>34.88635281477838</v>
+        <v>34.88635281477841</v>
       </c>
     </row>
     <row r="25">
@@ -29229,7 +29229,7 @@
         <v>25.21686539889343</v>
       </c>
       <c r="N25" t="n">
-        <v>16.52015736928132</v>
+        <v>16.52015736928133</v>
       </c>
       <c r="O25" t="n">
         <v>37.47888399777678</v>
@@ -29320,7 +29320,7 @@
         <v>213.4847505240009</v>
       </c>
       <c r="R26" t="n">
-        <v>213.4847505240024</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="S26" t="n">
         <v>213.4847505240009</v>
@@ -29360,10 +29360,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>147.093044686426</v>
       </c>
       <c r="G27" t="n">
         <v>148.7446044746268</v>
@@ -29396,22 +29396,22 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.869455874161016</v>
+        <v>6.869455874161019</v>
       </c>
       <c r="R27" t="n">
         <v>134.7198007890776</v>
       </c>
       <c r="S27" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="U27" t="n">
-        <v>213.4847505240009</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>127.3298252062211</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>213.4847505240009</v>
@@ -29433,16 +29433,16 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
-        <v>170.0354238882983</v>
+        <v>205.0018805467901</v>
       </c>
       <c r="D28" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
-        <v>141.676141212225</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="F28" t="n">
-        <v>138.9268822184467</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="G28" t="n">
         <v>168.7007749271525</v>
@@ -29460,13 +29460,13 @@
         <v>67.02998013918996</v>
       </c>
       <c r="L28" t="n">
-        <v>213.4847505240009</v>
+        <v>32.15181624817886</v>
       </c>
       <c r="M28" t="n">
         <v>25.21686539889343</v>
       </c>
       <c r="N28" t="n">
-        <v>16.52015736928132</v>
+        <v>16.52015736928133</v>
       </c>
       <c r="O28" t="n">
         <v>37.47888399777678</v>
@@ -29591,19 +29591,19 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.869455874161016</v>
+        <v>6.869455874161019</v>
       </c>
       <c r="R30" t="n">
         <v>134.7198007890776</v>
@@ -29645,10 +29645,10 @@
         <v>213.4847505240009</v>
       </c>
       <c r="U30" t="n">
+        <v>68.27531167243197</v>
+      </c>
+      <c r="V30" t="n">
         <v>213.4847505240009</v>
-      </c>
-      <c r="V30" t="n">
-        <v>175.6699469794002</v>
       </c>
       <c r="W30" t="n">
         <v>213.4847505240009</v>
@@ -29691,22 +29691,22 @@
         <v>164.852968067965</v>
       </c>
       <c r="J31" t="n">
-        <v>161.4234140002024</v>
+        <v>176.8052711181671</v>
       </c>
       <c r="K31" t="n">
         <v>67.02998013918996</v>
       </c>
       <c r="L31" t="n">
-        <v>213.4847505240009</v>
+        <v>32.15181624817886</v>
       </c>
       <c r="M31" t="n">
         <v>25.21686539889343</v>
       </c>
       <c r="N31" t="n">
-        <v>16.52015736928132</v>
+        <v>16.52015736928133</v>
       </c>
       <c r="O31" t="n">
-        <v>37.47888399777678</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="P31" t="n">
         <v>58.47859890024885</v>
@@ -29715,7 +29715,7 @@
         <v>127.2169859636892</v>
       </c>
       <c r="R31" t="n">
-        <v>213.4847505240009</v>
+        <v>203.4299611556341</v>
       </c>
       <c r="S31" t="n">
         <v>213.4847505240009</v>
@@ -29770,7 +29770,7 @@
         <v>214.3124603908652</v>
       </c>
       <c r="J32" t="n">
-        <v>214.3124603908652</v>
+        <v>194.1953356407505</v>
       </c>
       <c r="K32" t="n">
         <v>214.3124603908652</v>
@@ -29788,7 +29788,7 @@
         <v>214.3124603908652</v>
       </c>
       <c r="P32" t="n">
-        <v>194.1953356407511</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="Q32" t="n">
         <v>214.3124603908652</v>
@@ -29825,16 +29825,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>86.80589570221498</v>
       </c>
       <c r="F33" t="n">
         <v>158.8234391199283</v>
@@ -29843,7 +29843,7 @@
         <v>148.7446044746268</v>
       </c>
       <c r="H33" t="n">
-        <v>31.10163108302702</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I33" t="n">
         <v>107.3634103439873</v>
@@ -29870,19 +29870,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.869455874161016</v>
+        <v>6.869455874161019</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T33" t="n">
         <v>214.3124603908652</v>
       </c>
       <c r="U33" t="n">
-        <v>214.3124603908652</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>214.3124603908652</v>
@@ -29894,7 +29894,7 @@
         <v>214.3124603908652</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>214.3124603908652</v>
       </c>
     </row>
     <row r="34">
@@ -29910,7 +29910,7 @@
         <v>214.3124603908652</v>
       </c>
       <c r="D34" t="n">
-        <v>145.1826502507107</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="E34" t="n">
         <v>141.676141212225</v>
@@ -29922,7 +29922,7 @@
         <v>168.7007749271525</v>
       </c>
       <c r="H34" t="n">
-        <v>165.8243976546666</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="I34" t="n">
         <v>164.852968067965</v>
@@ -29940,7 +29940,7 @@
         <v>25.21686539889343</v>
       </c>
       <c r="N34" t="n">
-        <v>195.3247979026474</v>
+        <v>16.52015736928133</v>
       </c>
       <c r="O34" t="n">
         <v>37.47888399777678</v>
@@ -29949,10 +29949,10 @@
         <v>58.47859890024885</v>
       </c>
       <c r="Q34" t="n">
-        <v>127.2169859636892</v>
+        <v>177.5212543854708</v>
       </c>
       <c r="R34" t="n">
-        <v>203.4299611556341</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="S34" t="n">
         <v>214.3124603908652</v>
@@ -30004,40 +30004,40 @@
         <v>272.0591682562687</v>
       </c>
       <c r="I35" t="n">
-        <v>247.7523177195972</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="J35" t="n">
-        <v>272.0591682562687</v>
+        <v>76.78161896459403</v>
       </c>
       <c r="K35" t="n">
         <v>267.1880015163296</v>
       </c>
       <c r="L35" t="n">
-        <v>213.2680391874426</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>172.2823735001086</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>184.3720284248848</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>15.09197235108871</v>
+        <v>15.09197235108872</v>
       </c>
       <c r="Q35" t="n">
-        <v>89.71173703742193</v>
+        <v>89.71173703742194</v>
       </c>
       <c r="R35" t="n">
-        <v>194.8815453823668</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="S35" t="n">
         <v>272.0591682562687</v>
       </c>
       <c r="T35" t="n">
-        <v>272.0591682562687</v>
+        <v>222.4658813998192</v>
       </c>
       <c r="U35" t="n">
         <v>272.0591682562687</v>
@@ -30065,10 +30065,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>108.3564523603311</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
         <v>171.8275718397997</v>
@@ -30083,7 +30083,7 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I36" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>52.47517038390258</v>
@@ -30107,7 +30107,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.869455874161016</v>
+        <v>6.869455874161019</v>
       </c>
       <c r="R36" t="n">
         <v>134.7198007890776</v>
@@ -30116,7 +30116,7 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U36" t="n">
         <v>237.2280694968886</v>
@@ -30131,7 +30131,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>29.09477554661561</v>
       </c>
     </row>
     <row r="37">
@@ -30168,7 +30168,7 @@
         <v>120.2396075829089</v>
       </c>
       <c r="K37" t="n">
-        <v>67.02998013918996</v>
+        <v>102.586482073037</v>
       </c>
       <c r="L37" t="n">
         <v>32.15181624817886</v>
@@ -30177,7 +30177,7 @@
         <v>25.21686539889343</v>
       </c>
       <c r="N37" t="n">
-        <v>16.52015736928132</v>
+        <v>16.52015736928133</v>
       </c>
       <c r="O37" t="n">
         <v>37.47888399777678</v>
@@ -30195,7 +30195,7 @@
         <v>235.4380443661805</v>
       </c>
       <c r="T37" t="n">
-        <v>259.3180603841701</v>
+        <v>223.761558450323</v>
       </c>
       <c r="U37" t="n">
         <v>272.0591682562687</v>
@@ -30241,43 +30241,43 @@
         <v>272.0591682562687</v>
       </c>
       <c r="I38" t="n">
-        <v>241.009769215476</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="J38" t="n">
         <v>272.0591682562687</v>
       </c>
       <c r="K38" t="n">
-        <v>6.727192146300929</v>
+        <v>6.727192146300936</v>
       </c>
       <c r="L38" t="n">
-        <v>213.2680391874426</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>123.7223910992901</v>
+        <v>178.7821234236172</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>184.3720284248848</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>15.09197235108871</v>
+        <v>24.18219564948457</v>
       </c>
       <c r="Q38" t="n">
-        <v>272.0591682562687</v>
+        <v>89.71173703742194</v>
       </c>
       <c r="R38" t="n">
         <v>272.0591682562687</v>
       </c>
       <c r="S38" t="n">
-        <v>227.5169945584482</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="T38" t="n">
-        <v>222.4658813998192</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="U38" t="n">
-        <v>250.1505414926498</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="V38" t="n">
         <v>272.0591682562687</v>
@@ -30299,19 +30299,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>148.7446044746268</v>
@@ -30323,7 +30323,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>52.47517038390258</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,7 +30344,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.869455874161016</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>134.7198007890776</v>
@@ -30356,19 +30356,19 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2280694968886</v>
+        <v>85.92633983166448</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>6.243774206982948</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>102.4504291251326</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -30387,7 +30387,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E40" t="n">
-        <v>141.676141212225</v>
+        <v>158.6105241448817</v>
       </c>
       <c r="F40" t="n">
         <v>138.9268822184467</v>
@@ -30414,7 +30414,7 @@
         <v>25.21686539889343</v>
       </c>
       <c r="N40" t="n">
-        <v>16.52015736928132</v>
+        <v>16.52015736928133</v>
       </c>
       <c r="O40" t="n">
         <v>37.47888399777678</v>
@@ -30423,7 +30423,7 @@
         <v>58.47859890024885</v>
       </c>
       <c r="Q40" t="n">
-        <v>162.7734878975363</v>
+        <v>127.2169859636892</v>
       </c>
       <c r="R40" t="n">
         <v>203.4299611556341</v>
@@ -30438,7 +30438,7 @@
         <v>272.0591682562687</v>
       </c>
       <c r="V40" t="n">
-        <v>245.1090151844499</v>
+        <v>263.7311341856402</v>
       </c>
       <c r="W40" t="n">
         <v>272.0591682562687</v>
@@ -30481,13 +30481,13 @@
         <v>241.009769215476</v>
       </c>
       <c r="J41" t="n">
+        <v>76.78161896459403</v>
+      </c>
+      <c r="K41" t="n">
         <v>241.009769215476</v>
       </c>
-      <c r="K41" t="n">
-        <v>6.727192146300929</v>
-      </c>
       <c r="L41" t="n">
-        <v>241.009769215476</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>241.009769215476</v>
@@ -30499,19 +30499,19 @@
         <v>241.009769215476</v>
       </c>
       <c r="P41" t="n">
-        <v>15.09197235108871</v>
+        <v>15.09197235108872</v>
       </c>
       <c r="Q41" t="n">
-        <v>111.0420142884692</v>
+        <v>203.8324703798586</v>
       </c>
       <c r="R41" t="n">
-        <v>194.8815453823668</v>
+        <v>241.009769215476</v>
       </c>
       <c r="S41" t="n">
-        <v>227.5169945584482</v>
+        <v>241.009769215476</v>
       </c>
       <c r="T41" t="n">
-        <v>222.4658813998192</v>
+        <v>241.009769215476</v>
       </c>
       <c r="U41" t="n">
         <v>241.009769215476</v>
@@ -30542,7 +30542,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
         <v>171.8275718397997</v>
@@ -30581,31 +30581,31 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.869455874161016</v>
+        <v>6.869455874161019</v>
       </c>
       <c r="R42" t="n">
         <v>134.7198007890776</v>
       </c>
       <c r="S42" t="n">
-        <v>158.9356702975684</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T42" t="n">
         <v>214.9709236054903</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>241.009769215476</v>
+        <v>35.33854975359856</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>241.009769215476</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C43" t="n">
         <v>166.4571809719723</v>
@@ -30624,7 +30624,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E43" t="n">
-        <v>181.3819270826156</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
         <v>138.9268822184467</v>
@@ -30651,7 +30651,7 @@
         <v>25.21686539889343</v>
       </c>
       <c r="N43" t="n">
-        <v>16.52015736928132</v>
+        <v>16.52015736928133</v>
       </c>
       <c r="O43" t="n">
         <v>37.47888399777678</v>
@@ -30660,7 +30660,7 @@
         <v>58.47859890024885</v>
       </c>
       <c r="Q43" t="n">
-        <v>127.2169859636892</v>
+        <v>230.3156203845878</v>
       </c>
       <c r="R43" t="n">
         <v>203.4299611556341</v>
@@ -30724,22 +30724,22 @@
         <v>241.009769215476</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>241.009769215476</v>
       </c>
       <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
         <v>241.009769215476</v>
       </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
       <c r="O44" t="n">
-        <v>54.69629248006508</v>
+        <v>190.9023523070306</v>
       </c>
       <c r="P44" t="n">
-        <v>241.009769215476</v>
+        <v>15.09197235108872</v>
       </c>
       <c r="Q44" t="n">
-        <v>241.009769215476</v>
+        <v>89.71173703742194</v>
       </c>
       <c r="R44" t="n">
         <v>241.009769215476</v>
@@ -30773,7 +30773,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
@@ -30785,7 +30785,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>119.1823606893799</v>
       </c>
       <c r="G45" t="n">
         <v>148.7446044746268</v>
@@ -30794,10 +30794,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I45" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>52.47517038390258</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,7 +30818,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.869455874161016</v>
+        <v>6.869455874161019</v>
       </c>
       <c r="R45" t="n">
         <v>134.7198007890776</v>
@@ -30827,7 +30827,7 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U45" t="n">
         <v>237.2280694968886</v>
@@ -30839,7 +30839,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>161.0040252566616</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -30867,7 +30867,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>241.009769215476</v>
+        <v>168.7007749271525</v>
       </c>
       <c r="H46" t="n">
         <v>165.8243976546666</v>
@@ -30882,19 +30882,19 @@
         <v>67.02998013918996</v>
       </c>
       <c r="L46" t="n">
-        <v>62.94145638075389</v>
+        <v>32.15181624817886</v>
       </c>
       <c r="M46" t="n">
         <v>25.21686539889343</v>
       </c>
       <c r="N46" t="n">
-        <v>16.52015736928132</v>
+        <v>16.52015736928133</v>
       </c>
       <c r="O46" t="n">
         <v>37.47888399777678</v>
       </c>
       <c r="P46" t="n">
-        <v>58.47859890024885</v>
+        <v>138.7572977066991</v>
       </c>
       <c r="Q46" t="n">
         <v>127.2169859636892</v>
@@ -30903,10 +30903,10 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S46" t="n">
-        <v>235.4380443661805</v>
+        <v>241.009769215476</v>
       </c>
       <c r="T46" t="n">
-        <v>223.761558450323</v>
+        <v>241.009769215476</v>
       </c>
       <c r="U46" t="n">
         <v>241.009769215476</v>
@@ -31753,16 +31753,16 @@
         <v>0.4067191319631737</v>
       </c>
       <c r="H11" t="n">
-        <v>4.165312310217854</v>
+        <v>4.165312310217853</v>
       </c>
       <c r="I11" t="n">
         <v>15.68003933501027</v>
       </c>
       <c r="J11" t="n">
-        <v>34.51977792645945</v>
+        <v>34.51977792645944</v>
       </c>
       <c r="K11" t="n">
-        <v>51.7361987824606</v>
+        <v>51.73619878246059</v>
       </c>
       <c r="L11" t="n">
         <v>64.18332941727859</v>
@@ -31780,19 +31780,19 @@
         <v>58.48671957521938</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.92109066178821</v>
+        <v>43.9210906617882</v>
       </c>
       <c r="R11" t="n">
         <v>25.54857067318173</v>
       </c>
       <c r="S11" t="n">
-        <v>9.268112219610831</v>
+        <v>9.268112219610829</v>
       </c>
       <c r="T11" t="n">
         <v>1.780413000168794</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03253753055705389</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,10 +31835,10 @@
         <v>2.101692337122629</v>
       </c>
       <c r="I12" t="n">
-        <v>7.492409103729628</v>
+        <v>7.492409103729626</v>
       </c>
       <c r="J12" t="n">
-        <v>20.55974324884585</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K12" t="n">
         <v>35.13987592000174</v>
@@ -31850,13 +31850,13 @@
         <v>55.13840432133254</v>
       </c>
       <c r="N12" t="n">
-        <v>56.59775381427556</v>
+        <v>56.59775381427555</v>
       </c>
       <c r="O12" t="n">
-        <v>51.77588747134026</v>
+        <v>51.77588747134025</v>
       </c>
       <c r="P12" t="n">
-        <v>41.55471433862172</v>
+        <v>41.55471433862171</v>
       </c>
       <c r="Q12" t="n">
         <v>27.77822605795504</v>
@@ -31868,7 +31868,7 @@
         <v>4.042083127935662</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8771368109971368</v>
+        <v>0.8771368109971367</v>
       </c>
       <c r="U12" t="n">
         <v>0.01431670529375088</v>
@@ -31914,7 +31914,7 @@
         <v>1.622059239773297</v>
       </c>
       <c r="I13" t="n">
-        <v>5.486474402014381</v>
+        <v>5.48647440201438</v>
       </c>
       <c r="J13" t="n">
         <v>12.89852219602957</v>
@@ -31923,16 +31923,16 @@
         <v>21.19623423752834</v>
       </c>
       <c r="L13" t="n">
-        <v>27.12388221600459</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M13" t="n">
-        <v>28.59833074786395</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N13" t="n">
-        <v>27.91832636309194</v>
+        <v>27.91832636309193</v>
       </c>
       <c r="O13" t="n">
-        <v>25.78709310837957</v>
+        <v>25.78709310837956</v>
       </c>
       <c r="P13" t="n">
         <v>22.0653130122126</v>
@@ -31941,16 +31941,16 @@
         <v>15.27687899545177</v>
       </c>
       <c r="R13" t="n">
-        <v>8.203174846542659</v>
+        <v>8.203174846542657</v>
       </c>
       <c r="S13" t="n">
         <v>3.179435135629251</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7795172215679437</v>
+        <v>0.7795172215679436</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009951283679590785</v>
+        <v>0.009951283679590783</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,16 +31990,16 @@
         <v>0.4067191319631737</v>
       </c>
       <c r="H14" t="n">
-        <v>4.165312310217854</v>
+        <v>4.165312310217853</v>
       </c>
       <c r="I14" t="n">
         <v>15.68003933501027</v>
       </c>
       <c r="J14" t="n">
-        <v>34.51977792645945</v>
+        <v>34.51977792645944</v>
       </c>
       <c r="K14" t="n">
-        <v>51.7361987824606</v>
+        <v>51.73619878246059</v>
       </c>
       <c r="L14" t="n">
         <v>64.18332941727859</v>
@@ -32017,19 +32017,19 @@
         <v>58.48671957521938</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.92109066178821</v>
+        <v>43.9210906617882</v>
       </c>
       <c r="R14" t="n">
         <v>25.54857067318173</v>
       </c>
       <c r="S14" t="n">
-        <v>9.268112219610831</v>
+        <v>9.268112219610829</v>
       </c>
       <c r="T14" t="n">
         <v>1.780413000168794</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03253753055705389</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,10 +32072,10 @@
         <v>2.101692337122629</v>
       </c>
       <c r="I15" t="n">
-        <v>7.492409103729628</v>
+        <v>7.492409103729626</v>
       </c>
       <c r="J15" t="n">
-        <v>20.55974324884585</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K15" t="n">
         <v>35.13987592000174</v>
@@ -32087,13 +32087,13 @@
         <v>55.13840432133254</v>
       </c>
       <c r="N15" t="n">
-        <v>56.59775381427556</v>
+        <v>56.59775381427555</v>
       </c>
       <c r="O15" t="n">
-        <v>51.77588747134026</v>
+        <v>51.77588747134025</v>
       </c>
       <c r="P15" t="n">
-        <v>41.55471433862172</v>
+        <v>41.55471433862171</v>
       </c>
       <c r="Q15" t="n">
         <v>27.77822605795504</v>
@@ -32105,7 +32105,7 @@
         <v>4.042083127935662</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8771368109971368</v>
+        <v>0.8771368109971367</v>
       </c>
       <c r="U15" t="n">
         <v>0.01431670529375088</v>
@@ -32151,7 +32151,7 @@
         <v>1.622059239773297</v>
       </c>
       <c r="I16" t="n">
-        <v>5.486474402014381</v>
+        <v>5.48647440201438</v>
       </c>
       <c r="J16" t="n">
         <v>12.89852219602957</v>
@@ -32160,16 +32160,16 @@
         <v>21.19623423752834</v>
       </c>
       <c r="L16" t="n">
-        <v>27.12388221600459</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M16" t="n">
-        <v>28.59833074786395</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N16" t="n">
-        <v>27.91832636309194</v>
+        <v>27.91832636309193</v>
       </c>
       <c r="O16" t="n">
-        <v>25.78709310837957</v>
+        <v>25.78709310837956</v>
       </c>
       <c r="P16" t="n">
         <v>22.0653130122126</v>
@@ -32178,16 +32178,16 @@
         <v>15.27687899545177</v>
       </c>
       <c r="R16" t="n">
-        <v>8.203174846542659</v>
+        <v>8.203174846542657</v>
       </c>
       <c r="S16" t="n">
         <v>3.179435135629251</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7795172215679437</v>
+        <v>0.7795172215679436</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009951283679590785</v>
+        <v>0.009951283679590783</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,16 +32227,16 @@
         <v>0.4067191319631737</v>
       </c>
       <c r="H17" t="n">
-        <v>4.165312310217854</v>
+        <v>4.165312310217853</v>
       </c>
       <c r="I17" t="n">
         <v>15.68003933501027</v>
       </c>
       <c r="J17" t="n">
-        <v>34.51977792645945</v>
+        <v>34.51977792645944</v>
       </c>
       <c r="K17" t="n">
-        <v>51.7361987824606</v>
+        <v>51.73619878246059</v>
       </c>
       <c r="L17" t="n">
         <v>64.18332941727859</v>
@@ -32254,19 +32254,19 @@
         <v>58.48671957521938</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.92109066178821</v>
+        <v>43.9210906617882</v>
       </c>
       <c r="R17" t="n">
         <v>25.54857067318173</v>
       </c>
       <c r="S17" t="n">
-        <v>9.268112219610831</v>
+        <v>9.268112219610829</v>
       </c>
       <c r="T17" t="n">
         <v>1.780413000168794</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03253753055705389</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,10 +32309,10 @@
         <v>2.101692337122629</v>
       </c>
       <c r="I18" t="n">
-        <v>7.492409103729628</v>
+        <v>7.492409103729626</v>
       </c>
       <c r="J18" t="n">
-        <v>20.55974324884585</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K18" t="n">
         <v>35.13987592000174</v>
@@ -32324,13 +32324,13 @@
         <v>55.13840432133254</v>
       </c>
       <c r="N18" t="n">
-        <v>56.59775381427556</v>
+        <v>56.59775381427555</v>
       </c>
       <c r="O18" t="n">
-        <v>51.77588747134026</v>
+        <v>51.77588747134025</v>
       </c>
       <c r="P18" t="n">
-        <v>41.55471433862172</v>
+        <v>41.55471433862171</v>
       </c>
       <c r="Q18" t="n">
         <v>27.77822605795504</v>
@@ -32342,7 +32342,7 @@
         <v>4.042083127935662</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8771368109971368</v>
+        <v>0.8771368109971367</v>
       </c>
       <c r="U18" t="n">
         <v>0.01431670529375088</v>
@@ -32388,7 +32388,7 @@
         <v>1.622059239773297</v>
       </c>
       <c r="I19" t="n">
-        <v>5.486474402014381</v>
+        <v>5.48647440201438</v>
       </c>
       <c r="J19" t="n">
         <v>12.89852219602957</v>
@@ -32397,16 +32397,16 @@
         <v>21.19623423752834</v>
       </c>
       <c r="L19" t="n">
-        <v>27.12388221600459</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M19" t="n">
-        <v>28.59833074786395</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N19" t="n">
-        <v>27.91832636309194</v>
+        <v>27.91832636309193</v>
       </c>
       <c r="O19" t="n">
-        <v>25.78709310837957</v>
+        <v>25.78709310837956</v>
       </c>
       <c r="P19" t="n">
         <v>22.0653130122126</v>
@@ -32415,16 +32415,16 @@
         <v>15.27687899545177</v>
       </c>
       <c r="R19" t="n">
-        <v>8.203174846542659</v>
+        <v>8.203174846542657</v>
       </c>
       <c r="S19" t="n">
         <v>3.179435135629251</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7795172215679437</v>
+        <v>0.7795172215679436</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009951283679590785</v>
+        <v>0.009951283679590783</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,16 +32464,16 @@
         <v>0.4067191319631737</v>
       </c>
       <c r="H20" t="n">
-        <v>4.165312310217854</v>
+        <v>4.165312310217853</v>
       </c>
       <c r="I20" t="n">
         <v>15.68003933501027</v>
       </c>
       <c r="J20" t="n">
-        <v>34.51977792645945</v>
+        <v>34.51977792645944</v>
       </c>
       <c r="K20" t="n">
-        <v>51.7361987824606</v>
+        <v>51.73619878246059</v>
       </c>
       <c r="L20" t="n">
         <v>64.18332941727859</v>
@@ -32491,19 +32491,19 @@
         <v>58.48671957521938</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.92109066178821</v>
+        <v>43.9210906617882</v>
       </c>
       <c r="R20" t="n">
         <v>25.54857067318173</v>
       </c>
       <c r="S20" t="n">
-        <v>9.268112219610831</v>
+        <v>9.268112219610829</v>
       </c>
       <c r="T20" t="n">
         <v>1.780413000168794</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03253753055705389</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,10 +32546,10 @@
         <v>2.101692337122629</v>
       </c>
       <c r="I21" t="n">
-        <v>7.492409103729628</v>
+        <v>7.492409103729626</v>
       </c>
       <c r="J21" t="n">
-        <v>20.55974324884585</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K21" t="n">
         <v>35.13987592000174</v>
@@ -32561,13 +32561,13 @@
         <v>55.13840432133254</v>
       </c>
       <c r="N21" t="n">
-        <v>56.59775381427556</v>
+        <v>56.59775381427555</v>
       </c>
       <c r="O21" t="n">
-        <v>51.77588747134026</v>
+        <v>51.77588747134025</v>
       </c>
       <c r="P21" t="n">
-        <v>41.55471433862172</v>
+        <v>41.55471433862171</v>
       </c>
       <c r="Q21" t="n">
         <v>27.77822605795504</v>
@@ -32579,7 +32579,7 @@
         <v>4.042083127935662</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8771368109971368</v>
+        <v>0.8771368109971367</v>
       </c>
       <c r="U21" t="n">
         <v>0.01431670529375088</v>
@@ -32625,7 +32625,7 @@
         <v>1.622059239773297</v>
       </c>
       <c r="I22" t="n">
-        <v>5.486474402014381</v>
+        <v>5.48647440201438</v>
       </c>
       <c r="J22" t="n">
         <v>12.89852219602957</v>
@@ -32634,16 +32634,16 @@
         <v>21.19623423752834</v>
       </c>
       <c r="L22" t="n">
-        <v>27.12388221600459</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M22" t="n">
-        <v>28.59833074786395</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N22" t="n">
-        <v>27.91832636309194</v>
+        <v>27.91832636309193</v>
       </c>
       <c r="O22" t="n">
-        <v>25.78709310837957</v>
+        <v>25.78709310837956</v>
       </c>
       <c r="P22" t="n">
         <v>22.0653130122126</v>
@@ -32652,16 +32652,16 @@
         <v>15.27687899545177</v>
       </c>
       <c r="R22" t="n">
-        <v>8.203174846542659</v>
+        <v>8.203174846542657</v>
       </c>
       <c r="S22" t="n">
         <v>3.179435135629251</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7795172215679437</v>
+        <v>0.7795172215679436</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009951283679590785</v>
+        <v>0.009951283679590783</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,16 +32701,16 @@
         <v>0.4067191319631737</v>
       </c>
       <c r="H23" t="n">
-        <v>4.165312310217854</v>
+        <v>4.165312310217853</v>
       </c>
       <c r="I23" t="n">
         <v>15.68003933501027</v>
       </c>
       <c r="J23" t="n">
-        <v>34.51977792645945</v>
+        <v>34.51977792645944</v>
       </c>
       <c r="K23" t="n">
-        <v>51.7361987824606</v>
+        <v>51.73619878246059</v>
       </c>
       <c r="L23" t="n">
         <v>64.18332941727859</v>
@@ -32728,19 +32728,19 @@
         <v>58.48671957521938</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.92109066178821</v>
+        <v>43.9210906617882</v>
       </c>
       <c r="R23" t="n">
         <v>25.54857067318173</v>
       </c>
       <c r="S23" t="n">
-        <v>9.268112219610831</v>
+        <v>9.268112219610829</v>
       </c>
       <c r="T23" t="n">
         <v>1.780413000168794</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03253753055705389</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,10 +32783,10 @@
         <v>2.101692337122629</v>
       </c>
       <c r="I24" t="n">
-        <v>7.492409103729628</v>
+        <v>7.492409103729626</v>
       </c>
       <c r="J24" t="n">
-        <v>20.55974324884585</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K24" t="n">
         <v>35.13987592000174</v>
@@ -32798,13 +32798,13 @@
         <v>55.13840432133254</v>
       </c>
       <c r="N24" t="n">
-        <v>56.59775381427556</v>
+        <v>56.59775381427555</v>
       </c>
       <c r="O24" t="n">
-        <v>51.77588747134026</v>
+        <v>51.77588747134025</v>
       </c>
       <c r="P24" t="n">
-        <v>41.55471433862172</v>
+        <v>41.55471433862171</v>
       </c>
       <c r="Q24" t="n">
         <v>27.77822605795504</v>
@@ -32816,7 +32816,7 @@
         <v>4.042083127935662</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8771368109971368</v>
+        <v>0.8771368109971367</v>
       </c>
       <c r="U24" t="n">
         <v>0.01431670529375088</v>
@@ -32862,7 +32862,7 @@
         <v>1.622059239773297</v>
       </c>
       <c r="I25" t="n">
-        <v>5.486474402014381</v>
+        <v>5.48647440201438</v>
       </c>
       <c r="J25" t="n">
         <v>12.89852219602957</v>
@@ -32871,16 +32871,16 @@
         <v>21.19623423752834</v>
       </c>
       <c r="L25" t="n">
-        <v>27.12388221600459</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M25" t="n">
-        <v>28.59833074786395</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N25" t="n">
-        <v>27.91832636309194</v>
+        <v>27.91832636309193</v>
       </c>
       <c r="O25" t="n">
-        <v>25.78709310837957</v>
+        <v>25.78709310837956</v>
       </c>
       <c r="P25" t="n">
         <v>22.0653130122126</v>
@@ -32889,16 +32889,16 @@
         <v>15.27687899545177</v>
       </c>
       <c r="R25" t="n">
-        <v>8.203174846542659</v>
+        <v>8.203174846542657</v>
       </c>
       <c r="S25" t="n">
         <v>3.179435135629251</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7795172215679437</v>
+        <v>0.7795172215679436</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009951283679590785</v>
+        <v>0.009951283679590783</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,16 +32938,16 @@
         <v>0.4067191319631737</v>
       </c>
       <c r="H26" t="n">
-        <v>4.165312310217854</v>
+        <v>4.165312310217853</v>
       </c>
       <c r="I26" t="n">
         <v>15.68003933501027</v>
       </c>
       <c r="J26" t="n">
-        <v>34.51977792645945</v>
+        <v>34.51977792645944</v>
       </c>
       <c r="K26" t="n">
-        <v>51.7361987824606</v>
+        <v>51.73619878246059</v>
       </c>
       <c r="L26" t="n">
         <v>64.18332941727859</v>
@@ -32965,19 +32965,19 @@
         <v>58.48671957521938</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.92109066178821</v>
+        <v>43.9210906617882</v>
       </c>
       <c r="R26" t="n">
         <v>25.54857067318173</v>
       </c>
       <c r="S26" t="n">
-        <v>9.268112219610831</v>
+        <v>9.268112219610829</v>
       </c>
       <c r="T26" t="n">
         <v>1.780413000168794</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03253753055705389</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,10 +33020,10 @@
         <v>2.101692337122629</v>
       </c>
       <c r="I27" t="n">
-        <v>7.492409103729628</v>
+        <v>7.492409103729626</v>
       </c>
       <c r="J27" t="n">
-        <v>20.55974324884585</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K27" t="n">
         <v>35.13987592000174</v>
@@ -33035,13 +33035,13 @@
         <v>55.13840432133254</v>
       </c>
       <c r="N27" t="n">
-        <v>56.59775381427556</v>
+        <v>56.59775381427555</v>
       </c>
       <c r="O27" t="n">
-        <v>51.77588747134026</v>
+        <v>51.77588747134025</v>
       </c>
       <c r="P27" t="n">
-        <v>41.55471433862172</v>
+        <v>41.55471433862171</v>
       </c>
       <c r="Q27" t="n">
         <v>27.77822605795504</v>
@@ -33053,7 +33053,7 @@
         <v>4.042083127935662</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8771368109971368</v>
+        <v>0.8771368109971367</v>
       </c>
       <c r="U27" t="n">
         <v>0.01431670529375088</v>
@@ -33099,7 +33099,7 @@
         <v>1.622059239773297</v>
       </c>
       <c r="I28" t="n">
-        <v>5.486474402014381</v>
+        <v>5.48647440201438</v>
       </c>
       <c r="J28" t="n">
         <v>12.89852219602957</v>
@@ -33108,16 +33108,16 @@
         <v>21.19623423752834</v>
       </c>
       <c r="L28" t="n">
-        <v>27.12388221600459</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M28" t="n">
-        <v>28.59833074786395</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N28" t="n">
-        <v>27.91832636309194</v>
+        <v>27.91832636309193</v>
       </c>
       <c r="O28" t="n">
-        <v>25.78709310837957</v>
+        <v>25.78709310837956</v>
       </c>
       <c r="P28" t="n">
         <v>22.0653130122126</v>
@@ -33126,16 +33126,16 @@
         <v>15.27687899545177</v>
       </c>
       <c r="R28" t="n">
-        <v>8.203174846542659</v>
+        <v>8.203174846542657</v>
       </c>
       <c r="S28" t="n">
         <v>3.179435135629251</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7795172215679437</v>
+        <v>0.7795172215679436</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009951283679590785</v>
+        <v>0.009951283679590783</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,16 +33175,16 @@
         <v>0.4067191319631737</v>
       </c>
       <c r="H29" t="n">
-        <v>4.165312310217854</v>
+        <v>4.165312310217853</v>
       </c>
       <c r="I29" t="n">
         <v>15.68003933501027</v>
       </c>
       <c r="J29" t="n">
-        <v>34.51977792645945</v>
+        <v>34.51977792645944</v>
       </c>
       <c r="K29" t="n">
-        <v>51.7361987824606</v>
+        <v>51.73619878246059</v>
       </c>
       <c r="L29" t="n">
         <v>64.18332941727859</v>
@@ -33202,19 +33202,19 @@
         <v>58.48671957521938</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.92109066178821</v>
+        <v>43.9210906617882</v>
       </c>
       <c r="R29" t="n">
         <v>25.54857067318173</v>
       </c>
       <c r="S29" t="n">
-        <v>9.268112219610831</v>
+        <v>9.268112219610829</v>
       </c>
       <c r="T29" t="n">
         <v>1.780413000168794</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03253753055705389</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,10 +33257,10 @@
         <v>2.101692337122629</v>
       </c>
       <c r="I30" t="n">
-        <v>7.492409103729628</v>
+        <v>7.492409103729626</v>
       </c>
       <c r="J30" t="n">
-        <v>20.55974324884585</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K30" t="n">
         <v>35.13987592000174</v>
@@ -33272,13 +33272,13 @@
         <v>55.13840432133254</v>
       </c>
       <c r="N30" t="n">
-        <v>56.59775381427556</v>
+        <v>56.59775381427555</v>
       </c>
       <c r="O30" t="n">
-        <v>51.77588747134026</v>
+        <v>51.77588747134025</v>
       </c>
       <c r="P30" t="n">
-        <v>41.55471433862172</v>
+        <v>41.55471433862171</v>
       </c>
       <c r="Q30" t="n">
         <v>27.77822605795504</v>
@@ -33290,7 +33290,7 @@
         <v>4.042083127935662</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8771368109971368</v>
+        <v>0.8771368109971367</v>
       </c>
       <c r="U30" t="n">
         <v>0.01431670529375088</v>
@@ -33336,7 +33336,7 @@
         <v>1.622059239773297</v>
       </c>
       <c r="I31" t="n">
-        <v>5.486474402014381</v>
+        <v>5.48647440201438</v>
       </c>
       <c r="J31" t="n">
         <v>12.89852219602957</v>
@@ -33345,16 +33345,16 @@
         <v>21.19623423752834</v>
       </c>
       <c r="L31" t="n">
-        <v>27.12388221600459</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M31" t="n">
-        <v>28.59833074786395</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N31" t="n">
-        <v>27.91832636309194</v>
+        <v>27.91832636309193</v>
       </c>
       <c r="O31" t="n">
-        <v>25.78709310837957</v>
+        <v>25.78709310837956</v>
       </c>
       <c r="P31" t="n">
         <v>22.0653130122126</v>
@@ -33363,16 +33363,16 @@
         <v>15.27687899545177</v>
       </c>
       <c r="R31" t="n">
-        <v>8.203174846542659</v>
+        <v>8.203174846542657</v>
       </c>
       <c r="S31" t="n">
         <v>3.179435135629251</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7795172215679437</v>
+        <v>0.7795172215679436</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009951283679590785</v>
+        <v>0.009951283679590783</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,16 +33412,16 @@
         <v>0.4067191319631737</v>
       </c>
       <c r="H32" t="n">
-        <v>4.165312310217854</v>
+        <v>4.165312310217853</v>
       </c>
       <c r="I32" t="n">
         <v>15.68003933501027</v>
       </c>
       <c r="J32" t="n">
-        <v>34.51977792645945</v>
+        <v>34.51977792645944</v>
       </c>
       <c r="K32" t="n">
-        <v>51.7361987824606</v>
+        <v>51.73619878246059</v>
       </c>
       <c r="L32" t="n">
         <v>64.18332941727859</v>
@@ -33439,19 +33439,19 @@
         <v>58.48671957521938</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.92109066178821</v>
+        <v>43.9210906617882</v>
       </c>
       <c r="R32" t="n">
         <v>25.54857067318173</v>
       </c>
       <c r="S32" t="n">
-        <v>9.268112219610831</v>
+        <v>9.268112219610829</v>
       </c>
       <c r="T32" t="n">
         <v>1.780413000168794</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03253753055705389</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,10 +33494,10 @@
         <v>2.101692337122629</v>
       </c>
       <c r="I33" t="n">
-        <v>7.492409103729628</v>
+        <v>7.492409103729626</v>
       </c>
       <c r="J33" t="n">
-        <v>20.55974324884585</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K33" t="n">
         <v>35.13987592000174</v>
@@ -33509,13 +33509,13 @@
         <v>55.13840432133254</v>
       </c>
       <c r="N33" t="n">
-        <v>56.59775381427556</v>
+        <v>56.59775381427555</v>
       </c>
       <c r="O33" t="n">
-        <v>51.77588747134026</v>
+        <v>51.77588747134025</v>
       </c>
       <c r="P33" t="n">
-        <v>41.55471433862172</v>
+        <v>41.55471433862171</v>
       </c>
       <c r="Q33" t="n">
         <v>27.77822605795504</v>
@@ -33527,7 +33527,7 @@
         <v>4.042083127935662</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8771368109971368</v>
+        <v>0.8771368109971367</v>
       </c>
       <c r="U33" t="n">
         <v>0.01431670529375088</v>
@@ -33573,7 +33573,7 @@
         <v>1.622059239773297</v>
       </c>
       <c r="I34" t="n">
-        <v>5.486474402014381</v>
+        <v>5.48647440201438</v>
       </c>
       <c r="J34" t="n">
         <v>12.89852219602957</v>
@@ -33582,16 +33582,16 @@
         <v>21.19623423752834</v>
       </c>
       <c r="L34" t="n">
-        <v>27.12388221600459</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M34" t="n">
-        <v>28.59833074786395</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N34" t="n">
-        <v>27.91832636309194</v>
+        <v>27.91832636309193</v>
       </c>
       <c r="O34" t="n">
-        <v>25.78709310837957</v>
+        <v>25.78709310837956</v>
       </c>
       <c r="P34" t="n">
         <v>22.0653130122126</v>
@@ -33600,16 +33600,16 @@
         <v>15.27687899545177</v>
       </c>
       <c r="R34" t="n">
-        <v>8.203174846542659</v>
+        <v>8.203174846542657</v>
       </c>
       <c r="S34" t="n">
         <v>3.179435135629251</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7795172215679437</v>
+        <v>0.7795172215679436</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009951283679590785</v>
+        <v>0.009951283679590783</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,16 +33649,16 @@
         <v>0.4067191319631737</v>
       </c>
       <c r="H35" t="n">
-        <v>4.165312310217854</v>
+        <v>4.165312310217853</v>
       </c>
       <c r="I35" t="n">
         <v>15.68003933501027</v>
       </c>
       <c r="J35" t="n">
-        <v>34.51977792645945</v>
+        <v>34.51977792645944</v>
       </c>
       <c r="K35" t="n">
-        <v>51.7361987824606</v>
+        <v>51.73619878246059</v>
       </c>
       <c r="L35" t="n">
         <v>64.18332941727859</v>
@@ -33676,19 +33676,19 @@
         <v>58.48671957521938</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.92109066178821</v>
+        <v>43.9210906617882</v>
       </c>
       <c r="R35" t="n">
         <v>25.54857067318173</v>
       </c>
       <c r="S35" t="n">
-        <v>9.268112219610831</v>
+        <v>9.268112219610829</v>
       </c>
       <c r="T35" t="n">
         <v>1.780413000168794</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03253753055705389</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,10 +33731,10 @@
         <v>2.101692337122629</v>
       </c>
       <c r="I36" t="n">
-        <v>7.492409103729628</v>
+        <v>7.492409103729626</v>
       </c>
       <c r="J36" t="n">
-        <v>20.55974324884585</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K36" t="n">
         <v>35.13987592000174</v>
@@ -33746,13 +33746,13 @@
         <v>55.13840432133254</v>
       </c>
       <c r="N36" t="n">
-        <v>56.59775381427556</v>
+        <v>56.59775381427555</v>
       </c>
       <c r="O36" t="n">
-        <v>51.77588747134026</v>
+        <v>51.77588747134025</v>
       </c>
       <c r="P36" t="n">
-        <v>41.55471433862172</v>
+        <v>41.55471433862171</v>
       </c>
       <c r="Q36" t="n">
         <v>27.77822605795504</v>
@@ -33764,7 +33764,7 @@
         <v>4.042083127935662</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8771368109971368</v>
+        <v>0.8771368109971367</v>
       </c>
       <c r="U36" t="n">
         <v>0.01431670529375088</v>
@@ -33810,7 +33810,7 @@
         <v>1.622059239773297</v>
       </c>
       <c r="I37" t="n">
-        <v>5.486474402014381</v>
+        <v>5.48647440201438</v>
       </c>
       <c r="J37" t="n">
         <v>12.89852219602957</v>
@@ -33819,16 +33819,16 @@
         <v>21.19623423752834</v>
       </c>
       <c r="L37" t="n">
-        <v>27.12388221600459</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M37" t="n">
-        <v>28.59833074786395</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N37" t="n">
-        <v>27.91832636309194</v>
+        <v>27.91832636309193</v>
       </c>
       <c r="O37" t="n">
-        <v>25.78709310837957</v>
+        <v>25.78709310837956</v>
       </c>
       <c r="P37" t="n">
         <v>22.0653130122126</v>
@@ -33837,16 +33837,16 @@
         <v>15.27687899545177</v>
       </c>
       <c r="R37" t="n">
-        <v>8.203174846542659</v>
+        <v>8.203174846542657</v>
       </c>
       <c r="S37" t="n">
         <v>3.179435135629251</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7795172215679437</v>
+        <v>0.7795172215679436</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009951283679590785</v>
+        <v>0.009951283679590783</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,16 +33886,16 @@
         <v>0.4067191319631737</v>
       </c>
       <c r="H38" t="n">
-        <v>4.165312310217854</v>
+        <v>4.165312310217853</v>
       </c>
       <c r="I38" t="n">
         <v>15.68003933501027</v>
       </c>
       <c r="J38" t="n">
-        <v>34.51977792645945</v>
+        <v>34.51977792645944</v>
       </c>
       <c r="K38" t="n">
-        <v>51.7361987824606</v>
+        <v>51.73619878246059</v>
       </c>
       <c r="L38" t="n">
         <v>64.18332941727859</v>
@@ -33913,19 +33913,19 @@
         <v>58.48671957521938</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.92109066178821</v>
+        <v>43.9210906617882</v>
       </c>
       <c r="R38" t="n">
         <v>25.54857067318173</v>
       </c>
       <c r="S38" t="n">
-        <v>9.268112219610831</v>
+        <v>9.268112219610829</v>
       </c>
       <c r="T38" t="n">
         <v>1.780413000168794</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03253753055705389</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,10 +33968,10 @@
         <v>2.101692337122629</v>
       </c>
       <c r="I39" t="n">
-        <v>7.492409103729628</v>
+        <v>7.492409103729626</v>
       </c>
       <c r="J39" t="n">
-        <v>20.55974324884585</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K39" t="n">
         <v>35.13987592000174</v>
@@ -33983,13 +33983,13 @@
         <v>55.13840432133254</v>
       </c>
       <c r="N39" t="n">
-        <v>56.59775381427556</v>
+        <v>56.59775381427555</v>
       </c>
       <c r="O39" t="n">
-        <v>51.77588747134026</v>
+        <v>51.77588747134025</v>
       </c>
       <c r="P39" t="n">
-        <v>41.55471433862172</v>
+        <v>41.55471433862171</v>
       </c>
       <c r="Q39" t="n">
         <v>27.77822605795504</v>
@@ -34001,7 +34001,7 @@
         <v>4.042083127935662</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8771368109971368</v>
+        <v>0.8771368109971367</v>
       </c>
       <c r="U39" t="n">
         <v>0.01431670529375088</v>
@@ -34047,7 +34047,7 @@
         <v>1.622059239773297</v>
       </c>
       <c r="I40" t="n">
-        <v>5.486474402014381</v>
+        <v>5.48647440201438</v>
       </c>
       <c r="J40" t="n">
         <v>12.89852219602957</v>
@@ -34056,16 +34056,16 @@
         <v>21.19623423752834</v>
       </c>
       <c r="L40" t="n">
-        <v>27.12388221600459</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M40" t="n">
-        <v>28.59833074786395</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N40" t="n">
-        <v>27.91832636309194</v>
+        <v>27.91832636309193</v>
       </c>
       <c r="O40" t="n">
-        <v>25.78709310837957</v>
+        <v>25.78709310837956</v>
       </c>
       <c r="P40" t="n">
         <v>22.0653130122126</v>
@@ -34074,16 +34074,16 @@
         <v>15.27687899545177</v>
       </c>
       <c r="R40" t="n">
-        <v>8.203174846542659</v>
+        <v>8.203174846542657</v>
       </c>
       <c r="S40" t="n">
         <v>3.179435135629251</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7795172215679437</v>
+        <v>0.7795172215679436</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009951283679590785</v>
+        <v>0.009951283679590783</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,16 +34123,16 @@
         <v>0.4067191319631737</v>
       </c>
       <c r="H41" t="n">
-        <v>4.165312310217854</v>
+        <v>4.165312310217853</v>
       </c>
       <c r="I41" t="n">
         <v>15.68003933501027</v>
       </c>
       <c r="J41" t="n">
-        <v>34.51977792645945</v>
+        <v>34.51977792645944</v>
       </c>
       <c r="K41" t="n">
-        <v>51.7361987824606</v>
+        <v>51.73619878246059</v>
       </c>
       <c r="L41" t="n">
         <v>64.18332941727859</v>
@@ -34150,19 +34150,19 @@
         <v>58.48671957521938</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.92109066178821</v>
+        <v>43.9210906617882</v>
       </c>
       <c r="R41" t="n">
         <v>25.54857067318173</v>
       </c>
       <c r="S41" t="n">
-        <v>9.268112219610831</v>
+        <v>9.268112219610829</v>
       </c>
       <c r="T41" t="n">
         <v>1.780413000168794</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03253753055705389</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,10 +34205,10 @@
         <v>2.101692337122629</v>
       </c>
       <c r="I42" t="n">
-        <v>7.492409103729628</v>
+        <v>7.492409103729626</v>
       </c>
       <c r="J42" t="n">
-        <v>20.55974324884585</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K42" t="n">
         <v>35.13987592000174</v>
@@ -34220,13 +34220,13 @@
         <v>55.13840432133254</v>
       </c>
       <c r="N42" t="n">
-        <v>56.59775381427556</v>
+        <v>56.59775381427555</v>
       </c>
       <c r="O42" t="n">
-        <v>51.77588747134026</v>
+        <v>51.77588747134025</v>
       </c>
       <c r="P42" t="n">
-        <v>41.55471433862172</v>
+        <v>41.55471433862171</v>
       </c>
       <c r="Q42" t="n">
         <v>27.77822605795504</v>
@@ -34238,7 +34238,7 @@
         <v>4.042083127935662</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8771368109971368</v>
+        <v>0.8771368109971367</v>
       </c>
       <c r="U42" t="n">
         <v>0.01431670529375088</v>
@@ -34284,7 +34284,7 @@
         <v>1.622059239773297</v>
       </c>
       <c r="I43" t="n">
-        <v>5.486474402014381</v>
+        <v>5.48647440201438</v>
       </c>
       <c r="J43" t="n">
         <v>12.89852219602957</v>
@@ -34293,16 +34293,16 @@
         <v>21.19623423752834</v>
       </c>
       <c r="L43" t="n">
-        <v>27.12388221600459</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M43" t="n">
-        <v>28.59833074786395</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N43" t="n">
-        <v>27.91832636309194</v>
+        <v>27.91832636309193</v>
       </c>
       <c r="O43" t="n">
-        <v>25.78709310837957</v>
+        <v>25.78709310837956</v>
       </c>
       <c r="P43" t="n">
         <v>22.0653130122126</v>
@@ -34311,16 +34311,16 @@
         <v>15.27687899545177</v>
       </c>
       <c r="R43" t="n">
-        <v>8.203174846542659</v>
+        <v>8.203174846542657</v>
       </c>
       <c r="S43" t="n">
         <v>3.179435135629251</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7795172215679437</v>
+        <v>0.7795172215679436</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009951283679590785</v>
+        <v>0.009951283679590783</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,16 +34360,16 @@
         <v>0.4067191319631737</v>
       </c>
       <c r="H44" t="n">
-        <v>4.165312310217854</v>
+        <v>4.165312310217853</v>
       </c>
       <c r="I44" t="n">
         <v>15.68003933501027</v>
       </c>
       <c r="J44" t="n">
-        <v>34.51977792645945</v>
+        <v>34.51977792645944</v>
       </c>
       <c r="K44" t="n">
-        <v>51.7361987824606</v>
+        <v>51.73619878246059</v>
       </c>
       <c r="L44" t="n">
         <v>64.18332941727859</v>
@@ -34387,19 +34387,19 @@
         <v>58.48671957521938</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.92109066178821</v>
+        <v>43.9210906617882</v>
       </c>
       <c r="R44" t="n">
         <v>25.54857067318173</v>
       </c>
       <c r="S44" t="n">
-        <v>9.268112219610831</v>
+        <v>9.268112219610829</v>
       </c>
       <c r="T44" t="n">
         <v>1.780413000168794</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03253753055705389</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,10 +34442,10 @@
         <v>2.101692337122629</v>
       </c>
       <c r="I45" t="n">
-        <v>7.492409103729628</v>
+        <v>7.492409103729626</v>
       </c>
       <c r="J45" t="n">
-        <v>20.55974324884585</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K45" t="n">
         <v>35.13987592000174</v>
@@ -34457,13 +34457,13 @@
         <v>55.13840432133254</v>
       </c>
       <c r="N45" t="n">
-        <v>56.59775381427556</v>
+        <v>56.59775381427555</v>
       </c>
       <c r="O45" t="n">
-        <v>51.77588747134026</v>
+        <v>51.77588747134025</v>
       </c>
       <c r="P45" t="n">
-        <v>41.55471433862172</v>
+        <v>41.55471433862171</v>
       </c>
       <c r="Q45" t="n">
         <v>27.77822605795504</v>
@@ -34475,7 +34475,7 @@
         <v>4.042083127935662</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8771368109971368</v>
+        <v>0.8771368109971367</v>
       </c>
       <c r="U45" t="n">
         <v>0.01431670529375088</v>
@@ -34521,7 +34521,7 @@
         <v>1.622059239773297</v>
       </c>
       <c r="I46" t="n">
-        <v>5.486474402014381</v>
+        <v>5.48647440201438</v>
       </c>
       <c r="J46" t="n">
         <v>12.89852219602957</v>
@@ -34530,16 +34530,16 @@
         <v>21.19623423752834</v>
       </c>
       <c r="L46" t="n">
-        <v>27.12388221600459</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M46" t="n">
-        <v>28.59833074786395</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N46" t="n">
-        <v>27.91832636309194</v>
+        <v>27.91832636309193</v>
       </c>
       <c r="O46" t="n">
-        <v>25.78709310837957</v>
+        <v>25.78709310837956</v>
       </c>
       <c r="P46" t="n">
         <v>22.0653130122126</v>
@@ -34548,16 +34548,16 @@
         <v>15.27687899545177</v>
       </c>
       <c r="R46" t="n">
-        <v>8.203174846542659</v>
+        <v>8.203174846542657</v>
       </c>
       <c r="S46" t="n">
         <v>3.179435135629251</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7795172215679437</v>
+        <v>0.7795172215679436</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009951283679590785</v>
+        <v>0.009951283679590783</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35194,7 +35194,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>0.129915453191039</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35212,7 +35212,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0.129915453191039</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -35252,19 +35252,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>3.069987028295762</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>3.199249640013477</v>
       </c>
       <c r="O9" t="n">
-        <v>3.069987028295762</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="P9" t="n">
         <v>3.199249640013477</v>
@@ -35410,25 +35410,25 @@
         <v>101.3666451884737</v>
       </c>
       <c r="K11" t="n">
-        <v>171.4210720067668</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>47.19277018258602</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="M11" t="n">
         <v>188.4979333192472</v>
       </c>
       <c r="N11" t="n">
-        <v>188.4979333192472</v>
+        <v>76.08878094514385</v>
       </c>
       <c r="O11" t="n">
-        <v>49.39930114675889</v>
+        <v>103.4878352753221</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>88.43652711564583</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.34679395543475</v>
+        <v>38.34679395543474</v>
       </c>
       <c r="L12" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M12" t="n">
         <v>183.5117642464701</v>
       </c>
       <c r="N12" t="n">
-        <v>188.4979333192474</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O12" t="n">
         <v>133.0312521404388</v>
       </c>
       <c r="P12" t="n">
-        <v>84.46981137181811</v>
+        <v>84.46981137181817</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,49 +35541,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5313434880996795</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>11.69108318109542</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>36.47212294084278</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>9.447489225915303</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>12.32386649840119</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>13.29529608510273</v>
       </c>
       <c r="J13" t="n">
-        <v>57.90865657015883</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>111.1182840138778</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>145.9964479048889</v>
       </c>
       <c r="M13" t="n">
-        <v>152.9313987541744</v>
+        <v>12.68291529890491</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>161.6281067837864</v>
       </c>
       <c r="O13" t="n">
         <v>140.669380155291</v>
       </c>
       <c r="P13" t="n">
-        <v>14.12276728180318</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.3666451884737</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>171.4210720067668</v>
+        <v>171.4210720067669</v>
       </c>
       <c r="L14" t="n">
-        <v>168.8450210328193</v>
+        <v>47.19277018258602</v>
       </c>
       <c r="M14" t="n">
         <v>81.67868594641143</v>
@@ -35659,10 +35659,10 @@
         <v>188.4979333192472</v>
       </c>
       <c r="O14" t="n">
-        <v>34.5662976693614</v>
+        <v>94.52890190608927</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>163.0562918019791</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.34679395543485</v>
+        <v>38.34679395543474</v>
       </c>
       <c r="L15" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M15" t="n">
         <v>183.5117642464701</v>
@@ -35741,7 +35741,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P15" t="n">
-        <v>84.46981137181811</v>
+        <v>84.46981137181817</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,43 +35778,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.5313434880997363</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>11.69108318109548</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>32.96561390235712</v>
       </c>
       <c r="E16" t="n">
-        <v>36.47212294084278</v>
+        <v>36.47212294084284</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>39.22138193462118</v>
       </c>
       <c r="G16" t="n">
-        <v>9.447489225915303</v>
+        <v>9.44748922591536</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>12.32386649840125</v>
       </c>
       <c r="I16" t="n">
-        <v>13.29529608510273</v>
+        <v>13.29529608510279</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>57.90865657015888</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>145.9964479048889</v>
+        <v>145.996447904889</v>
       </c>
       <c r="M16" t="n">
-        <v>92.97352803890206</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>161.6281067837864</v>
+        <v>99.95968924795399</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -35823,7 +35823,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.93127818937856</v>
+        <v>50.93127818937862</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,28 +35878,28 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>56.43790171150837</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>188.4979333192472</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>47.19277018258602</v>
       </c>
       <c r="M17" t="n">
         <v>81.67868594641143</v>
       </c>
       <c r="N17" t="n">
-        <v>103.3759091816091</v>
+        <v>76.08878094514385</v>
       </c>
       <c r="O17" t="n">
-        <v>34.5662976693614</v>
+        <v>118.8273087346516</v>
       </c>
       <c r="P17" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35911,10 +35911,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>74.98178952716516</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>47.29712943433466</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.34679395543475</v>
+        <v>38.34679395543474</v>
       </c>
       <c r="L18" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M18" t="n">
         <v>183.5117642464701</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>56.43790171150837</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>47.19277018258602</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="M20" t="n">
         <v>188.4979333192472</v>
@@ -36133,25 +36133,25 @@
         <v>76.08878094514385</v>
       </c>
       <c r="O20" t="n">
-        <v>34.5662976693614</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="P20" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>66.61947383179279</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>69.93067636853624</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>74.98178952716516</v>
+        <v>1.058043114351267</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>47.29712943433466</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.34679395543475</v>
+        <v>38.34679395543474</v>
       </c>
       <c r="L21" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M21" t="n">
-        <v>183.5117642464702</v>
+        <v>183.5117642464701</v>
       </c>
       <c r="N21" t="n">
         <v>188.4979333192472</v>
@@ -36364,10 +36364,10 @@
         <v>188.4979333192472</v>
       </c>
       <c r="M23" t="n">
-        <v>156.1585843654626</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="N23" t="n">
-        <v>76.08878094514385</v>
+        <v>99.0184281016421</v>
       </c>
       <c r="O23" t="n">
         <v>34.5662976693614</v>
@@ -36379,7 +36379,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>102.5661255446176</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36388,7 +36388,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>47.29712943433466</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,10 +36437,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.34679395543475</v>
+        <v>38.34679395543474</v>
       </c>
       <c r="L24" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M24" t="n">
         <v>183.5117642464701</v>
@@ -36449,7 +36449,7 @@
         <v>188.4979333192472</v>
       </c>
       <c r="O24" t="n">
-        <v>133.0312521404388</v>
+        <v>133.0312521404387</v>
       </c>
       <c r="P24" t="n">
         <v>84.46981137181811</v>
@@ -36616,7 +36616,7 @@
         <v>123.773013486579</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60320514163555</v>
+        <v>18.60320514163411</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,16 +36674,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.34679395543475</v>
+        <v>38.34679395543474</v>
       </c>
       <c r="L27" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M27" t="n">
         <v>183.5117642464701</v>
       </c>
       <c r="N27" t="n">
-        <v>206.9747236472316</v>
+        <v>206.9747236472315</v>
       </c>
       <c r="O27" t="n">
         <v>133.0312521404388</v>
@@ -36729,16 +36729,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>3.578242916325895</v>
+        <v>38.54469957481771</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>71.80860931177594</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>74.55786830555428</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>181.3329342758221</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -36911,16 +36911,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.34679395543475</v>
+        <v>38.34679395543474</v>
       </c>
       <c r="L30" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M30" t="n">
         <v>183.5117642464701</v>
       </c>
       <c r="N30" t="n">
-        <v>206.9747236472316</v>
+        <v>206.9747236472315</v>
       </c>
       <c r="O30" t="n">
         <v>133.0312521404388</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>41.18380641729343</v>
+        <v>56.56566353525815</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>181.3329342758221</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -37002,7 +37002,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>176.0058665262242</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37011,7 +37011,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>10.05478936836682</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.5308414262712</v>
+        <v>117.4137166761565</v>
       </c>
       <c r="K32" t="n">
         <v>207.5852682445643</v>
@@ -37078,19 +37078,19 @@
         <v>295.9911463372766</v>
       </c>
       <c r="N32" t="n">
-        <v>290.401241336009</v>
+        <v>290.4012413360091</v>
       </c>
       <c r="O32" t="n">
         <v>248.8787580602266</v>
       </c>
       <c r="P32" t="n">
-        <v>179.1033632896624</v>
+        <v>199.2204880397765</v>
       </c>
       <c r="Q32" t="n">
         <v>124.6007233534433</v>
       </c>
       <c r="R32" t="n">
-        <v>19.43091500849838</v>
+        <v>19.4309150084984</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>38.34679395543475</v>
+        <v>38.34679395543474</v>
       </c>
       <c r="L33" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M33" t="n">
         <v>183.5117642464701</v>
       </c>
       <c r="N33" t="n">
-        <v>206.9747236472316</v>
+        <v>206.9747236472315</v>
       </c>
       <c r="O33" t="n">
         <v>133.0312521404388</v>
@@ -37203,10 +37203,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>47.85527941889285</v>
+        <v>47.85527941889288</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>69.12981014015452</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -37218,7 +37218,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>48.48806273619865</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>178.8046405333661</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37245,10 +37245,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>50.3042684217816</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>10.88249923523111</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,22 +37300,22 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>6.742548504121195</v>
+        <v>31.04939904079268</v>
       </c>
       <c r="J35" t="n">
-        <v>195.2775492916747</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>260.4608093700286</v>
       </c>
       <c r="L35" t="n">
+        <v>47.19277018258602</v>
+      </c>
+      <c r="M35" t="n">
+        <v>253.96105944652</v>
+      </c>
+      <c r="N35" t="n">
         <v>260.4608093700286</v>
-      </c>
-      <c r="M35" t="n">
-        <v>81.67868594641143</v>
-      </c>
-      <c r="N35" t="n">
-        <v>76.08878094514385</v>
       </c>
       <c r="O35" t="n">
         <v>34.5662976693614</v>
@@ -37327,13 +37327,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>77.1776228739019</v>
       </c>
       <c r="S35" t="n">
         <v>44.54217369782054</v>
       </c>
       <c r="T35" t="n">
-        <v>49.59328685644947</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>21.90862676361897</v>
@@ -37385,16 +37385,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>38.34679395543475</v>
+        <v>38.34679395543474</v>
       </c>
       <c r="L36" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M36" t="n">
         <v>183.5117642464701</v>
       </c>
       <c r="N36" t="n">
-        <v>206.9747236472316</v>
+        <v>206.9747236472315</v>
       </c>
       <c r="O36" t="n">
         <v>133.0312521404388</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>35.55650193384704</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -37491,7 +37491,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>35.55650193384704</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>31.04939904079268</v>
       </c>
       <c r="J38" t="n">
         <v>195.2775492916747</v>
@@ -37546,34 +37546,34 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
+        <v>47.19277018258602</v>
+      </c>
+      <c r="M38" t="n">
         <v>260.4608093700286</v>
       </c>
-      <c r="M38" t="n">
-        <v>205.4010770457015</v>
-      </c>
       <c r="N38" t="n">
-        <v>76.08878094514385</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="O38" t="n">
         <v>34.5662976693614</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>9.09022329839585</v>
       </c>
       <c r="Q38" t="n">
-        <v>182.3474312188468</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>77.1776228739019</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>44.54217369782054</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>49.59328685644947</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>21.90862676361897</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37622,16 +37622,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>38.34679395543475</v>
+        <v>38.34679395543474</v>
       </c>
       <c r="L39" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M39" t="n">
         <v>183.5117642464701</v>
       </c>
       <c r="N39" t="n">
-        <v>206.9747236472316</v>
+        <v>206.9747236472315</v>
       </c>
       <c r="O39" t="n">
         <v>133.0312521404388</v>
@@ -37683,7 +37683,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>16.93438293265676</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.55650193384704</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37734,7 +37734,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>18.62211900119029</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>164.228150250882</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>234.2825770691751</v>
       </c>
       <c r="L41" t="n">
-        <v>288.2025393980621</v>
+        <v>47.19277018258602</v>
       </c>
       <c r="M41" t="n">
         <v>322.6884551618875</v>
@@ -37798,16 +37798,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>21.33027725104728</v>
+        <v>114.1207333424366</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>46.12822383310922</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>13.49277465702787</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>18.54388781565679</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>38.34679395543475</v>
+        <v>38.34679395543474</v>
       </c>
       <c r="L42" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M42" t="n">
         <v>183.5117642464701</v>
       </c>
       <c r="N42" t="n">
-        <v>206.9747236472316</v>
+        <v>206.9747236472315</v>
       </c>
       <c r="O42" t="n">
         <v>133.0312521404388</v>
@@ -37911,7 +37911,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>63.39284855050795</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -37920,7 +37920,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>39.70578587039066</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>103.0986344208986</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,31 +38020,31 @@
         <v>234.2825770691751</v>
       </c>
       <c r="L44" t="n">
-        <v>47.19277018258602</v>
+        <v>288.202539398062</v>
       </c>
       <c r="M44" t="n">
-        <v>322.6884551618875</v>
+        <v>81.67868594641143</v>
       </c>
       <c r="N44" t="n">
-        <v>76.08878094514385</v>
+        <v>317.0985501606199</v>
       </c>
       <c r="O44" t="n">
-        <v>89.26259014942649</v>
+        <v>225.468649976392</v>
       </c>
       <c r="P44" t="n">
-        <v>225.9177968643873</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>151.2980321780541</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>46.12822383310922</v>
+        <v>46.12822383310919</v>
       </c>
       <c r="S44" t="n">
-        <v>13.49277465702787</v>
+        <v>13.49277465702784</v>
       </c>
       <c r="T44" t="n">
-        <v>18.54388781565679</v>
+        <v>18.54388781565676</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>38.34679395543475</v>
+        <v>38.34679395543474</v>
       </c>
       <c r="L45" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M45" t="n">
         <v>183.5117642464701</v>
       </c>
       <c r="N45" t="n">
-        <v>206.9747236472316</v>
+        <v>206.9747236472315</v>
       </c>
       <c r="O45" t="n">
         <v>133.0312521404388</v>
@@ -38163,7 +38163,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>72.30899428832358</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>30.78964013257503</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -38190,7 +38190,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>80.27869880645024</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -38199,10 +38199,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>5.571724849295452</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>17.248210765153</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
